--- a/converted_files/835/835-all-files.xlsx
+++ b/converted_files/835/835-all-files.xlsx
@@ -1110,7 +1110,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754dc9</t>
+          <t>685d6a78b5939c4ba8ce140c</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754dc9</t>
+          <t>685d6a78b5939c4ba8ce140c</t>
         </is>
       </c>
       <c r="B3"/>
@@ -1820,7 +1820,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754dc9</t>
+          <t>685d6a78b5939c4ba8ce140c</t>
         </is>
       </c>
       <c r="B4"/>
@@ -2072,7 +2072,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754deb</t>
+          <t>685d6a78b5939c4ba8ce142e</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -2528,7 +2528,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754e39</t>
+          <t>685d6a78b5939c4ba8ce147c</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -3178,7 +3178,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754e39</t>
+          <t>685d6a78b5939c4ba8ce147c</t>
         </is>
       </c>
       <c r="B7"/>
@@ -3442,7 +3442,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754e39</t>
+          <t>685d6a78b5939c4ba8ce147c</t>
         </is>
       </c>
       <c r="B8"/>
@@ -3706,7 +3706,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754e39</t>
+          <t>685d6a78b5939c4ba8ce147c</t>
         </is>
       </c>
       <c r="B9"/>
@@ -3970,7 +3970,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754e39</t>
+          <t>685d6a78b5939c4ba8ce147c</t>
         </is>
       </c>
       <c r="B10"/>
@@ -4264,7 +4264,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754e5c</t>
+          <t>685d6a78b5939c4ba8ce149f</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -4694,7 +4694,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754e5d</t>
+          <t>685d6a78b5939c4ba8ce14a0</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -5124,7 +5124,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754eb1</t>
+          <t>685d6a78b5939c4ba8ce14f4</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -5810,7 +5810,7 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754eb1</t>
+          <t>685d6a78b5939c4ba8ce14f4</t>
         </is>
       </c>
       <c r="B14"/>
@@ -6074,7 +6074,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754eb1</t>
+          <t>685d6a78b5939c4ba8ce14f4</t>
         </is>
       </c>
       <c r="B15"/>
@@ -6338,7 +6338,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754eb1</t>
+          <t>685d6a78b5939c4ba8ce14f4</t>
         </is>
       </c>
       <c r="B16"/>
@@ -6602,7 +6602,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754eb1</t>
+          <t>685d6a78b5939c4ba8ce14f4</t>
         </is>
       </c>
       <c r="B17"/>
@@ -6850,7 +6850,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754eb1</t>
+          <t>685d6a78b5939c4ba8ce14f4</t>
         </is>
       </c>
       <c r="B18"/>
@@ -7144,7 +7144,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>680d294a42dad96c0a754eb1</t>
+          <t>685d6a78b5939c4ba8ce14f4</t>
         </is>
       </c>
       <c r="B19"/>

--- a/converted_files/835/835-all-files.xlsx
+++ b/converted_files/835/835-all-files.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:GZ19"/>
+  <dimension ref="A1:GZ21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1110,7 +1110,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce140c</t>
+          <t>68ec56cace2f64368d1777d7</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1120,17 +1120,17 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>claim_adj_reason.dat</t>
+          <t>835-provider-level-adjustment.dat</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>10060875</t>
+          <t>0002</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>PATACCT</t>
+          <t>5554555444</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1139,20 +1139,22 @@
         </is>
       </c>
       <c r="G2" s="1" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="I2"/>
+        <v>500.0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>300.0</v>
+      </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>CLAIMNUMBER</t>
+          <t>94060555410000</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -1169,7 +1171,7 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" s="1" t="n">
-        <v>80.0</v>
+        <v>500.0</v>
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
@@ -1181,25 +1183,29 @@
           <t>CHECK</t>
         </is>
       </c>
-      <c r="T2"/>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>RECEIVER_ACCT_1</t>
+        </is>
+      </c>
       <c r="U2" s="4" t="n">
-        <v>43693.0</v>
+        <v>45651.0</v>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>CK NUMBER 1</t>
+          <t>CHECK_1</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>PAYER_ID</t>
         </is>
       </c>
       <c r="X2" s="4" t="n">
-        <v>43704.0</v>
+        <v>45649.0</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>320.0</v>
+        <v>300.0</v>
       </c>
       <c r="Z2"/>
       <c r="AA2"/>
@@ -1221,10 +1227,14 @@
       <c r="AQ2"/>
       <c r="AR2"/>
       <c r="AS2"/>
-      <c r="AT2"/>
+      <c r="AT2" s="3" t="inlineStr">
+        <is>
+          <t>PAYOR_ID</t>
+        </is>
+      </c>
       <c r="AU2" s="3" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>ADDNL_PAYER_ID</t>
         </is>
       </c>
       <c r="AV2" s="3" t="inlineStr">
@@ -1291,8 +1301,16 @@
           <t>EDI.SUPPORT@ANYPAYER.COM</t>
         </is>
       </c>
-      <c r="BL2"/>
-      <c r="BM2"/>
+      <c r="BL2" s="3" t="inlineStr">
+        <is>
+          <t>PAYER_IDENTIFICATION_NUMBER</t>
+        </is>
+      </c>
+      <c r="BM2" s="3" t="inlineStr">
+        <is>
+          <t>ADDNL_PAYER_ID</t>
+        </is>
+      </c>
       <c r="BN2"/>
       <c r="BO2"/>
       <c r="BP2" s="3" t="inlineStr">
@@ -1302,7 +1320,7 @@
       </c>
       <c r="BQ2" s="3" t="inlineStr">
         <is>
-          <t>1123454567</t>
+          <t>PROVIDER2_NPI</t>
         </is>
       </c>
       <c r="BR2" s="3" t="inlineStr">
@@ -1332,8 +1350,16 @@
         </is>
       </c>
       <c r="BX2"/>
-      <c r="BY2"/>
-      <c r="BZ2"/>
+      <c r="BY2" s="3" t="inlineStr">
+        <is>
+          <t>PAYEE_IDENTIFICATION_NUMBER</t>
+        </is>
+      </c>
+      <c r="BZ2" s="3" t="inlineStr">
+        <is>
+          <t>PAYEE_ID2</t>
+        </is>
+      </c>
       <c r="CA2"/>
       <c r="CB2"/>
       <c r="CC2" s="3" t="inlineStr">
@@ -1343,24 +1369,20 @@
       </c>
       <c r="CD2" s="3" t="inlineStr">
         <is>
-          <t>ABC123456789</t>
+          <t>33344555510</t>
         </is>
       </c>
       <c r="CE2" s="3" t="inlineStr">
         <is>
-          <t>DOE</t>
+          <t>BUDD</t>
         </is>
       </c>
       <c r="CF2" s="3" t="inlineStr">
         <is>
-          <t>JOHN</t>
-        </is>
-      </c>
-      <c r="CG2" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>WILLIAM</t>
+        </is>
+      </c>
+      <c r="CG2"/>
       <c r="CH2" s="3" t="inlineStr">
         <is>
           <t>MEMBER_ID</t>
@@ -1368,24 +1390,20 @@
       </c>
       <c r="CI2" s="3" t="inlineStr">
         <is>
-          <t>ABC123456789</t>
+          <t>33344555510</t>
         </is>
       </c>
       <c r="CJ2" s="3" t="inlineStr">
         <is>
-          <t>DOE</t>
+          <t>BUDD</t>
         </is>
       </c>
       <c r="CK2" s="3" t="inlineStr">
         <is>
-          <t>JOHN</t>
-        </is>
-      </c>
-      <c r="CL2" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+          <t>WILLIAM</t>
+        </is>
+      </c>
+      <c r="CL2"/>
       <c r="CM2"/>
       <c r="CN2"/>
       <c r="CO2"/>
@@ -1417,33 +1435,19 @@
       <c r="DO2"/>
       <c r="DP2"/>
       <c r="DQ2" s="4" t="n">
-        <v>43466.0</v>
+        <v>45352.0</v>
       </c>
       <c r="DR2" s="4" t="n">
-        <v>43466.0</v>
+        <v>45352.0</v>
       </c>
       <c r="DS2"/>
       <c r="DT2"/>
       <c r="DU2"/>
-      <c r="DV2" s="4" t="n">
-        <v>43505.0</v>
-      </c>
-      <c r="DW2" s="1" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="DX2" s="3" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="DY2" s="3" t="inlineStr">
-        <is>
-          <t>COVERAGE_AMOUNT</t>
-        </is>
-      </c>
-      <c r="DZ2" s="1" t="n">
-        <v>150.0</v>
-      </c>
+      <c r="DV2"/>
+      <c r="DW2"/>
+      <c r="DX2"/>
+      <c r="DY2"/>
+      <c r="DZ2"/>
       <c r="EA2"/>
       <c r="EB2"/>
       <c r="EC2"/>
@@ -1460,7 +1464,7 @@
       </c>
       <c r="EK2" s="3" t="inlineStr">
         <is>
-          <t>99213</t>
+          <t>99211</t>
         </is>
       </c>
       <c r="EL2"/>
@@ -1469,10 +1473,10 @@
       <c r="EO2"/>
       <c r="EP2"/>
       <c r="EQ2" s="1" t="n">
-        <v>150.0</v>
+        <v>800.0</v>
       </c>
       <c r="ER2" s="1" t="n">
-        <v>80.0</v>
+        <v>500.0</v>
       </c>
       <c r="ES2" t="n">
         <v>1.0</v>
@@ -1485,26 +1489,26 @@
       <c r="EY2"/>
       <c r="EZ2"/>
       <c r="FA2" s="4" t="n">
-        <v>43466.0</v>
+        <v>45352.0</v>
       </c>
       <c r="FB2" s="4" t="n">
-        <v>43466.0</v>
+        <v>45352.0</v>
       </c>
       <c r="FC2" s="1" t="n">
-        <v>70.0</v>
+        <v>300.0</v>
       </c>
       <c r="FD2" s="3" t="inlineStr">
         <is>
-          <t>CONTRACTUAL</t>
+          <t>PATIENT_RESPONSIBILITY</t>
         </is>
       </c>
       <c r="FE2" s="3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1</t>
         </is>
       </c>
       <c r="FF2" s="1" t="n">
-        <v>70.0</v>
+        <v>300.0</v>
       </c>
       <c r="FG2"/>
       <c r="FH2"/>
@@ -1535,7 +1539,7 @@
       <c r="GG2"/>
       <c r="GH2"/>
       <c r="GI2" s="1" t="n">
-        <v>80.0</v>
+        <v>800.0</v>
       </c>
       <c r="GJ2" s="3" t="inlineStr">
         <is>
@@ -1548,7 +1552,7 @@
         </is>
       </c>
       <c r="GL2" s="1" t="n">
-        <v>80.0</v>
+        <v>800.0</v>
       </c>
       <c r="GM2"/>
       <c r="GN2"/>
@@ -1568,41 +1572,97 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce140c</t>
-        </is>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+          <t>68ec56cace2f64368d1777ff</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>claim_adj_reason.dat</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>10060875</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
           <t>PATACCT</t>
         </is>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>80.0</v>
+      </c>
       <c r="I3"/>
-      <c r="J3"/>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
           <t>CLAIMNUMBER</t>
         </is>
       </c>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
+      <c r="Q3" s="1" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="S3" s="3" t="inlineStr">
+        <is>
+          <t>CHECK</t>
+        </is>
+      </c>
       <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
+      <c r="U3" s="4" t="n">
+        <v>43693.0</v>
+      </c>
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>CK NUMBER 1</t>
+        </is>
+      </c>
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>43704.0</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>320.0</v>
+      </c>
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
@@ -1623,51 +1683,175 @@
       <c r="AQ3"/>
       <c r="AR3"/>
       <c r="AS3"/>
-      <c r="AT3"/>
-      <c r="AU3"/>
-      <c r="AV3"/>
-      <c r="AW3"/>
+      <c r="AT3" s="3" t="inlineStr">
+        <is>
+          <t>PAYOR_ID</t>
+        </is>
+      </c>
+      <c r="AU3" s="3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="AV3" s="3" t="inlineStr">
+        <is>
+          <t>ANY PLAN USA</t>
+        </is>
+      </c>
+      <c r="AW3" s="3" t="inlineStr">
+        <is>
+          <t>1 WALK THIS WAY</t>
+        </is>
+      </c>
       <c r="AX3"/>
-      <c r="AY3"/>
-      <c r="AZ3"/>
-      <c r="BA3"/>
+      <c r="AY3" s="3" t="inlineStr">
+        <is>
+          <t>ANYCITY</t>
+        </is>
+      </c>
+      <c r="AZ3" s="3" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="BA3" s="3" t="inlineStr">
+        <is>
+          <t>45209</t>
+        </is>
+      </c>
       <c r="BB3"/>
-      <c r="BC3"/>
-      <c r="BD3"/>
+      <c r="BC3" s="3" t="inlineStr">
+        <is>
+          <t>PHONE</t>
+        </is>
+      </c>
+      <c r="BD3" s="3" t="inlineStr">
+        <is>
+          <t>8661112222</t>
+        </is>
+      </c>
       <c r="BE3"/>
       <c r="BF3"/>
-      <c r="BG3"/>
-      <c r="BH3"/>
-      <c r="BI3"/>
-      <c r="BJ3"/>
-      <c r="BK3"/>
+      <c r="BG3" s="3" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="BH3" s="3" t="inlineStr">
+        <is>
+          <t>PHONE</t>
+        </is>
+      </c>
+      <c r="BI3" s="3" t="inlineStr">
+        <is>
+          <t>8002223333</t>
+        </is>
+      </c>
+      <c r="BJ3" s="3" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="BK3" s="3" t="inlineStr">
+        <is>
+          <t>EDI.SUPPORT@ANYPAYER.COM</t>
+        </is>
+      </c>
       <c r="BL3"/>
       <c r="BM3"/>
       <c r="BN3"/>
       <c r="BO3"/>
-      <c r="BP3"/>
-      <c r="BQ3"/>
-      <c r="BR3"/>
-      <c r="BS3"/>
+      <c r="BP3" s="3" t="inlineStr">
+        <is>
+          <t>NPI</t>
+        </is>
+      </c>
+      <c r="BQ3" s="3" t="inlineStr">
+        <is>
+          <t>1123454567</t>
+        </is>
+      </c>
+      <c r="BR3" s="3" t="inlineStr">
+        <is>
+          <t>PROVIDER</t>
+        </is>
+      </c>
+      <c r="BS3" s="3" t="inlineStr">
+        <is>
+          <t>2255 ANY ROAD</t>
+        </is>
+      </c>
       <c r="BT3"/>
-      <c r="BU3"/>
-      <c r="BV3"/>
-      <c r="BW3"/>
+      <c r="BU3" s="3" t="inlineStr">
+        <is>
+          <t>ANY CITY</t>
+        </is>
+      </c>
+      <c r="BV3" s="3" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="BW3" s="3" t="inlineStr">
+        <is>
+          <t>12211</t>
+        </is>
+      </c>
       <c r="BX3"/>
       <c r="BY3"/>
       <c r="BZ3"/>
       <c r="CA3"/>
       <c r="CB3"/>
-      <c r="CC3"/>
-      <c r="CD3"/>
-      <c r="CE3"/>
-      <c r="CF3"/>
-      <c r="CG3"/>
-      <c r="CH3"/>
-      <c r="CI3"/>
-      <c r="CJ3"/>
-      <c r="CK3"/>
-      <c r="CL3"/>
+      <c r="CC3" s="3" t="inlineStr">
+        <is>
+          <t>MEMBER_ID</t>
+        </is>
+      </c>
+      <c r="CD3" s="3" t="inlineStr">
+        <is>
+          <t>ABC123456789</t>
+        </is>
+      </c>
+      <c r="CE3" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CF3" s="3" t="inlineStr">
+        <is>
+          <t>JOHN</t>
+        </is>
+      </c>
+      <c r="CG3" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CH3" s="3" t="inlineStr">
+        <is>
+          <t>MEMBER_ID</t>
+        </is>
+      </c>
+      <c r="CI3" s="3" t="inlineStr">
+        <is>
+          <t>ABC123456789</t>
+        </is>
+      </c>
+      <c r="CJ3" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CK3" s="3" t="inlineStr">
+        <is>
+          <t>JOHN</t>
+        </is>
+      </c>
+      <c r="CL3" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CM3"/>
       <c r="CN3"/>
       <c r="CO3"/>
@@ -1698,16 +1882,34 @@
       <c r="DN3"/>
       <c r="DO3"/>
       <c r="DP3"/>
-      <c r="DQ3"/>
-      <c r="DR3"/>
+      <c r="DQ3" s="4" t="n">
+        <v>43466.0</v>
+      </c>
+      <c r="DR3" s="4" t="n">
+        <v>43466.0</v>
+      </c>
       <c r="DS3"/>
       <c r="DT3"/>
       <c r="DU3"/>
-      <c r="DV3"/>
-      <c r="DW3"/>
-      <c r="DX3"/>
-      <c r="DY3"/>
-      <c r="DZ3"/>
+      <c r="DV3" s="4" t="n">
+        <v>43505.0</v>
+      </c>
+      <c r="DW3" s="1" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="DX3" s="3" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="DY3" s="3" t="inlineStr">
+        <is>
+          <t>COVERAGE_AMOUNT</t>
+        </is>
+      </c>
+      <c r="DZ3" s="1" t="n">
+        <v>150.0</v>
+      </c>
       <c r="EA3"/>
       <c r="EB3"/>
       <c r="EC3"/>
@@ -1719,12 +1921,12 @@
       <c r="EI3"/>
       <c r="EJ3" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="EK3" s="3" t="inlineStr">
         <is>
-          <t>85003</t>
+          <t>99213</t>
         </is>
       </c>
       <c r="EL3"/>
@@ -1733,10 +1935,10 @@
       <c r="EO3"/>
       <c r="EP3"/>
       <c r="EQ3" s="1" t="n">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
       <c r="ER3" s="1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="ES3" t="n">
         <v>1.0</v>
@@ -1755,7 +1957,7 @@
         <v>43466.0</v>
       </c>
       <c r="FC3" s="1" t="n">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="FD3" s="3" t="inlineStr">
         <is>
@@ -1764,11 +1966,11 @@
       </c>
       <c r="FE3" s="3" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>45</t>
         </is>
       </c>
       <c r="FF3" s="1" t="n">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
       <c r="FG3"/>
       <c r="FH3"/>
@@ -1798,10 +2000,22 @@
       <c r="GF3"/>
       <c r="GG3"/>
       <c r="GH3"/>
-      <c r="GI3"/>
-      <c r="GJ3"/>
-      <c r="GK3"/>
-      <c r="GL3"/>
+      <c r="GI3" s="1" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="GJ3" s="3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="GK3" s="3" t="inlineStr">
+        <is>
+          <t>ALLOWED_ACTUAL</t>
+        </is>
+      </c>
+      <c r="GL3" s="1" t="n">
+        <v>80.0</v>
+      </c>
       <c r="GM3"/>
       <c r="GN3"/>
       <c r="GO3"/>
@@ -1820,7 +2034,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce140c</t>
+          <t>68ec56cace2f64368d1777ff</t>
         </is>
       </c>
       <c r="B4"/>
@@ -1971,12 +2185,12 @@
       <c r="EI4"/>
       <c r="EJ4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EK4" s="3" t="inlineStr">
         <is>
-          <t>36415</t>
+          <t>85003</t>
         </is>
       </c>
       <c r="EL4"/>
@@ -1985,7 +2199,7 @@
       <c r="EO4"/>
       <c r="EP4"/>
       <c r="EQ4" s="1" t="n">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="ER4" s="1" t="n">
         <v>0.0</v>
@@ -2007,7 +2221,7 @@
         <v>43466.0</v>
       </c>
       <c r="FC4" s="1" t="n">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="FD4" s="3" t="inlineStr">
         <is>
@@ -2016,11 +2230,11 @@
       </c>
       <c r="FE4" s="3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>204</t>
         </is>
       </c>
       <c r="FF4" s="1" t="n">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="FG4"/>
       <c r="FH4"/>
@@ -2072,126 +2286,48 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce142e</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>835</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>not_covered_inpatient.dat</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>10060875</t>
-        </is>
-      </c>
+          <t>68ec56cace2f64368d1777ff</t>
+        </is>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
           <t>PATACCT</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>PRIMARY</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>8000.0</v>
-      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>MC</t>
-        </is>
-      </c>
+      <c r="J5"/>
       <c r="K5" s="3" t="inlineStr">
         <is>
           <t>CLAIMNUMBER</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="L5"/>
+      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" s="1" t="n">
-        <v>8000.0</v>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>CHECK</t>
-        </is>
-      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
       <c r="T5"/>
-      <c r="U5" s="4" t="n">
-        <v>43693.0</v>
-      </c>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t>CK NUMBER 1</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>43704.0</v>
-      </c>
-      <c r="Y5" s="1" t="n">
-        <v>32000.0</v>
-      </c>
-      <c r="Z5" s="3" t="inlineStr">
-        <is>
-          <t>CONTRACTUAL</t>
-        </is>
-      </c>
-      <c r="AA5" s="3" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD5" s="3" t="inlineStr">
-        <is>
-          <t>CONTRACTUAL</t>
-        </is>
-      </c>
-      <c r="AE5" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AF5" s="1" t="n">
-        <v>30000.0</v>
-      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
       <c r="AG5"/>
       <c r="AH5"/>
       <c r="AI5"/>
@@ -2206,170 +2342,50 @@
       <c r="AR5"/>
       <c r="AS5"/>
       <c r="AT5"/>
-      <c r="AU5" s="3" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-      <c r="AV5" s="3" t="inlineStr">
-        <is>
-          <t>ANY PLAN USA</t>
-        </is>
-      </c>
-      <c r="AW5" s="3" t="inlineStr">
-        <is>
-          <t>1 WALK THIS WAY</t>
-        </is>
-      </c>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
       <c r="AX5"/>
-      <c r="AY5" s="3" t="inlineStr">
-        <is>
-          <t>ANYCITY</t>
-        </is>
-      </c>
-      <c r="AZ5" s="3" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
-      <c r="BA5" s="3" t="inlineStr">
-        <is>
-          <t>45209</t>
-        </is>
-      </c>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
       <c r="BB5"/>
-      <c r="BC5" s="3" t="inlineStr">
-        <is>
-          <t>PHONE</t>
-        </is>
-      </c>
-      <c r="BD5" s="3" t="inlineStr">
-        <is>
-          <t>8661112222</t>
-        </is>
-      </c>
+      <c r="BC5"/>
+      <c r="BD5"/>
       <c r="BE5"/>
       <c r="BF5"/>
-      <c r="BG5" s="3" t="inlineStr">
-        <is>
-          <t>EDI</t>
-        </is>
-      </c>
-      <c r="BH5" s="3" t="inlineStr">
-        <is>
-          <t>PHONE</t>
-        </is>
-      </c>
-      <c r="BI5" s="3" t="inlineStr">
-        <is>
-          <t>8002223333</t>
-        </is>
-      </c>
-      <c r="BJ5" s="3" t="inlineStr">
-        <is>
-          <t>EMAIL</t>
-        </is>
-      </c>
-      <c r="BK5" s="3" t="inlineStr">
-        <is>
-          <t>EDI.SUPPORT@ANYPAYER.COM</t>
-        </is>
-      </c>
+      <c r="BG5"/>
+      <c r="BH5"/>
+      <c r="BI5"/>
+      <c r="BJ5"/>
+      <c r="BK5"/>
       <c r="BL5"/>
       <c r="BM5"/>
       <c r="BN5"/>
       <c r="BO5"/>
-      <c r="BP5" s="3" t="inlineStr">
-        <is>
-          <t>NPI</t>
-        </is>
-      </c>
-      <c r="BQ5" s="3" t="inlineStr">
-        <is>
-          <t>1123454567</t>
-        </is>
-      </c>
-      <c r="BR5" s="3" t="inlineStr">
-        <is>
-          <t>PROVIDER</t>
-        </is>
-      </c>
-      <c r="BS5" s="3" t="inlineStr">
-        <is>
-          <t>2255 ANY ROAD</t>
-        </is>
-      </c>
+      <c r="BP5"/>
+      <c r="BQ5"/>
+      <c r="BR5"/>
+      <c r="BS5"/>
       <c r="BT5"/>
-      <c r="BU5" s="3" t="inlineStr">
-        <is>
-          <t>ANY CITY</t>
-        </is>
-      </c>
-      <c r="BV5" s="3" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="BW5" s="3" t="inlineStr">
-        <is>
-          <t>12211</t>
-        </is>
-      </c>
+      <c r="BU5"/>
+      <c r="BV5"/>
+      <c r="BW5"/>
       <c r="BX5"/>
       <c r="BY5"/>
       <c r="BZ5"/>
       <c r="CA5"/>
       <c r="CB5"/>
-      <c r="CC5" s="3" t="inlineStr">
-        <is>
-          <t>MEMBER_ID</t>
-        </is>
-      </c>
-      <c r="CD5" s="3" t="inlineStr">
-        <is>
-          <t>ABC123456789</t>
-        </is>
-      </c>
-      <c r="CE5" s="3" t="inlineStr">
-        <is>
-          <t>DOE</t>
-        </is>
-      </c>
-      <c r="CF5" s="3" t="inlineStr">
-        <is>
-          <t>JOHN</t>
-        </is>
-      </c>
-      <c r="CG5" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="CH5" s="3" t="inlineStr">
-        <is>
-          <t>MEMBER_ID</t>
-        </is>
-      </c>
-      <c r="CI5" s="3" t="inlineStr">
-        <is>
-          <t>ABC123456789</t>
-        </is>
-      </c>
-      <c r="CJ5" s="3" t="inlineStr">
-        <is>
-          <t>DOE</t>
-        </is>
-      </c>
-      <c r="CK5" s="3" t="inlineStr">
-        <is>
-          <t>JOHN</t>
-        </is>
-      </c>
-      <c r="CL5" s="3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="CC5"/>
+      <c r="CD5"/>
+      <c r="CE5"/>
+      <c r="CF5"/>
+      <c r="CG5"/>
+      <c r="CH5"/>
+      <c r="CI5"/>
+      <c r="CJ5"/>
+      <c r="CK5"/>
+      <c r="CL5"/>
       <c r="CM5"/>
       <c r="CN5"/>
       <c r="CO5"/>
@@ -2402,67 +2418,47 @@
       <c r="DP5"/>
       <c r="DQ5"/>
       <c r="DR5"/>
-      <c r="DS5" s="4" t="n">
-        <v>43466.0</v>
-      </c>
-      <c r="DT5" s="4" t="n">
-        <v>43470.0</v>
-      </c>
-      <c r="DU5" s="4" t="n">
-        <v>43524.0</v>
-      </c>
-      <c r="DV5" s="4" t="n">
-        <v>43505.0</v>
-      </c>
-      <c r="DW5" s="1" t="n">
-        <v>38000.0</v>
-      </c>
-      <c r="DX5" s="3" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="DY5" s="3" t="inlineStr">
-        <is>
-          <t>COVERAGE_AMOUNT</t>
-        </is>
-      </c>
-      <c r="DZ5" s="1" t="n">
-        <v>38000.0</v>
-      </c>
+      <c r="DS5"/>
+      <c r="DT5"/>
+      <c r="DU5"/>
+      <c r="DV5"/>
+      <c r="DW5"/>
+      <c r="DX5"/>
+      <c r="DY5"/>
+      <c r="DZ5"/>
       <c r="EA5"/>
       <c r="EB5"/>
       <c r="EC5"/>
-      <c r="ED5" s="3" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="EE5" s="3" t="inlineStr">
-        <is>
-          <t>COVERED</t>
-        </is>
-      </c>
-      <c r="EF5" t="n">
-        <v>4.0</v>
-      </c>
+      <c r="ED5"/>
+      <c r="EE5"/>
+      <c r="EF5"/>
       <c r="EG5"/>
       <c r="EH5"/>
       <c r="EI5"/>
       <c r="EJ5" s="3" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="EK5"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="EK5" s="3" t="inlineStr">
+        <is>
+          <t>36415</t>
+        </is>
+      </c>
       <c r="EL5"/>
       <c r="EM5"/>
       <c r="EN5"/>
       <c r="EO5"/>
       <c r="EP5"/>
-      <c r="EQ5"/>
-      <c r="ER5"/>
-      <c r="ES5"/>
+      <c r="EQ5" s="1" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="ER5" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>1.0</v>
+      </c>
       <c r="ET5"/>
       <c r="EU5"/>
       <c r="EV5"/>
@@ -2470,14 +2466,28 @@
       <c r="EX5"/>
       <c r="EY5"/>
       <c r="EZ5"/>
-      <c r="FA5"/>
-      <c r="FB5"/>
+      <c r="FA5" s="4" t="n">
+        <v>43466.0</v>
+      </c>
+      <c r="FB5" s="4" t="n">
+        <v>43466.0</v>
+      </c>
       <c r="FC5" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FD5"/>
-      <c r="FE5"/>
-      <c r="FF5"/>
+        <v>150.0</v>
+      </c>
+      <c r="FD5" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="FE5" s="3" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="FF5" s="1" t="n">
+        <v>150.0</v>
+      </c>
       <c r="FG5"/>
       <c r="FH5"/>
       <c r="FI5"/>
@@ -2528,7 +2538,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce147c</t>
+          <t>68ec56cace2f64368d177822</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -2538,17 +2548,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>negotiated_discount.dat</t>
+          <t>not_covered_inpatient.dat</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>35681</t>
+          <t>10060875</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>7722337</t>
+          <t>PATACCT</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -2557,22 +2567,20 @@
         </is>
       </c>
       <c r="G6" s="1" t="n">
-        <v>226.0</v>
+        <v>40000.0</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>10.0</v>
-      </c>
+        <v>8000.0</v>
+      </c>
+      <c r="I6"/>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>119932404007801</t>
+          <t>CLAIMNUMBER</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
@@ -2589,7 +2597,7 @@
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" s="1" t="n">
-        <v>132.0</v>
+        <v>8000.0</v>
       </c>
       <c r="R6" s="3" t="inlineStr">
         <is>
@@ -2601,29 +2609,25 @@
           <t>CHECK</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
+      <c r="T6"/>
       <c r="U6" s="4" t="n">
-        <v>43555.0</v>
+        <v>43693.0</v>
       </c>
       <c r="V6" s="3" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>CK NUMBER 1</t>
         </is>
       </c>
       <c r="W6" s="3" t="inlineStr">
         <is>
-          <t>1512345678</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="X6" s="4" t="n">
-        <v>43538.0</v>
+        <v>43704.0</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>32405.0</v>
+        <v>32000.0</v>
       </c>
       <c r="Z6" s="3" t="inlineStr">
         <is>
@@ -2655,19 +2659,9 @@
         <v>30000.0</v>
       </c>
       <c r="AG6"/>
-      <c r="AH6" s="3" t="inlineStr">
-        <is>
-          <t>PATIENT_RESPONSIBILITY</t>
-        </is>
-      </c>
-      <c r="AI6" s="3" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>259.0</v>
-      </c>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
       <c r="AM6"/>
@@ -2677,39 +2671,43 @@
       <c r="AQ6"/>
       <c r="AR6"/>
       <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
+      <c r="AT6" s="3" t="inlineStr">
+        <is>
+          <t>PAYOR_ID</t>
+        </is>
+      </c>
+      <c r="AU6" s="3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
       <c r="AV6" s="3" t="inlineStr">
         <is>
-          <t>DELTA DENTAL OF ABC</t>
+          <t>ANY PLAN USA</t>
         </is>
       </c>
       <c r="AW6" s="3" t="inlineStr">
         <is>
-          <t>225 MAIN STREET</t>
+          <t>1 WALK THIS WAY</t>
         </is>
       </c>
       <c r="AX6"/>
       <c r="AY6" s="3" t="inlineStr">
         <is>
-          <t>CENTERVILLE</t>
+          <t>ANYCITY</t>
         </is>
       </c>
       <c r="AZ6" s="3" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="BA6" s="3" t="inlineStr">
         <is>
-          <t>17111</t>
-        </is>
-      </c>
-      <c r="BB6" s="3" t="inlineStr">
-        <is>
-          <t>JANE DOE</t>
-        </is>
-      </c>
+          <t>45209</t>
+        </is>
+      </c>
+      <c r="BB6"/>
       <c r="BC6" s="3" t="inlineStr">
         <is>
           <t>PHONE</t>
@@ -2717,87 +2715,91 @@
       </c>
       <c r="BD6" s="3" t="inlineStr">
         <is>
-          <t>9005555555</t>
+          <t>8661112222</t>
         </is>
       </c>
       <c r="BE6"/>
       <c r="BF6"/>
-      <c r="BG6"/>
-      <c r="BH6"/>
-      <c r="BI6"/>
-      <c r="BJ6"/>
-      <c r="BK6"/>
-      <c r="BL6" s="3" t="inlineStr">
-        <is>
-          <t>PAYER_IDENTIFICATION_NUMBER</t>
-        </is>
-      </c>
-      <c r="BM6" s="3" t="inlineStr">
-        <is>
-          <t>0101</t>
-        </is>
-      </c>
-      <c r="BN6" s="3" t="inlineStr">
-        <is>
-          <t>HEALTH_INDUSTRY_NUMBER</t>
-        </is>
-      </c>
-      <c r="BO6" s="3" t="inlineStr">
-        <is>
-          <t>0202</t>
-        </is>
-      </c>
+      <c r="BG6" s="3" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="BH6" s="3" t="inlineStr">
+        <is>
+          <t>PHONE</t>
+        </is>
+      </c>
+      <c r="BI6" s="3" t="inlineStr">
+        <is>
+          <t>8002223333</t>
+        </is>
+      </c>
+      <c r="BJ6" s="3" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="BK6" s="3" t="inlineStr">
+        <is>
+          <t>EDI.SUPPORT@ANYPAYER.COM</t>
+        </is>
+      </c>
+      <c r="BL6"/>
+      <c r="BM6"/>
+      <c r="BN6"/>
+      <c r="BO6"/>
       <c r="BP6" s="3" t="inlineStr">
         <is>
-          <t>EIN</t>
+          <t>NPI</t>
         </is>
       </c>
       <c r="BQ6" s="3" t="inlineStr">
         <is>
-          <t>999994703</t>
+          <t>1123454567</t>
         </is>
       </c>
       <c r="BR6" s="3" t="inlineStr">
         <is>
-          <t>BAN DDS LLC</t>
+          <t>PROVIDER</t>
         </is>
       </c>
       <c r="BS6" s="3" t="inlineStr">
         <is>
-          <t>225 MAIN STREET</t>
+          <t>2255 ANY ROAD</t>
         </is>
       </c>
       <c r="BT6"/>
       <c r="BU6" s="3" t="inlineStr">
         <is>
-          <t>CENTERVILLE</t>
+          <t>ANY CITY</t>
         </is>
       </c>
       <c r="BV6" s="3" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="BW6" s="3" t="inlineStr">
         <is>
-          <t>17111</t>
+          <t>12211</t>
         </is>
       </c>
       <c r="BX6"/>
-      <c r="BY6" s="3" t="inlineStr">
-        <is>
-          <t>PAYEE_IDENTIFICATION_NUMBER</t>
-        </is>
-      </c>
-      <c r="BZ6" s="3" t="inlineStr">
-        <is>
-          <t>0505</t>
-        </is>
-      </c>
+      <c r="BY6"/>
+      <c r="BZ6"/>
       <c r="CA6"/>
       <c r="CB6"/>
-      <c r="CC6"/>
-      <c r="CD6"/>
+      <c r="CC6" s="3" t="inlineStr">
+        <is>
+          <t>MEMBER_ID</t>
+        </is>
+      </c>
+      <c r="CD6" s="3" t="inlineStr">
+        <is>
+          <t>ABC123456789</t>
+        </is>
+      </c>
       <c r="CE6" s="3" t="inlineStr">
         <is>
           <t>DOE</t>
@@ -2805,10 +2807,14 @@
       </c>
       <c r="CF6" s="3" t="inlineStr">
         <is>
-          <t>SALLY</t>
-        </is>
-      </c>
-      <c r="CG6"/>
+          <t>JOHN</t>
+        </is>
+      </c>
+      <c r="CG6" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CH6" s="3" t="inlineStr">
         <is>
           <t>MEMBER_ID</t>
@@ -2816,7 +2822,7 @@
       </c>
       <c r="CI6" s="3" t="inlineStr">
         <is>
-          <t>SJD11111</t>
+          <t>ABC123456789</t>
         </is>
       </c>
       <c r="CJ6" s="3" t="inlineStr">
@@ -2826,116 +2832,60 @@
       </c>
       <c r="CK6" s="3" t="inlineStr">
         <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="CL6"/>
+          <t>JOHN</t>
+        </is>
+      </c>
+      <c r="CL6" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CM6"/>
       <c r="CN6"/>
       <c r="CO6"/>
       <c r="CP6"/>
       <c r="CQ6"/>
-      <c r="CR6" s="3" t="inlineStr">
-        <is>
-          <t>NPI</t>
-        </is>
-      </c>
-      <c r="CS6" s="3" t="inlineStr">
-        <is>
-          <t>1811901945</t>
-        </is>
-      </c>
-      <c r="CT6" s="3" t="inlineStr">
-        <is>
-          <t>BAN</t>
-        </is>
-      </c>
-      <c r="CU6" s="3" t="inlineStr">
-        <is>
-          <t>ERIN</t>
-        </is>
-      </c>
+      <c r="CR6"/>
+      <c r="CS6"/>
+      <c r="CT6"/>
+      <c r="CU6"/>
       <c r="CV6"/>
       <c r="CW6"/>
-      <c r="CX6" s="3" t="inlineStr">
-        <is>
-          <t>MEDICARE_PROVIDER_NUMBER</t>
-        </is>
-      </c>
-      <c r="CY6" s="3" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
+      <c r="CX6"/>
+      <c r="CY6"/>
       <c r="CZ6"/>
       <c r="DA6"/>
-      <c r="DB6" s="3" t="inlineStr">
-        <is>
-          <t>CMS_PLAN_ID</t>
-        </is>
-      </c>
-      <c r="DC6" s="3" t="inlineStr">
-        <is>
-          <t>9876</t>
-        </is>
-      </c>
-      <c r="DD6" s="3" t="inlineStr">
-        <is>
-          <t>ACME INSURANCE</t>
-        </is>
-      </c>
-      <c r="DE6" s="3" t="inlineStr">
-        <is>
-          <t>CMS_PLAN_ID</t>
-        </is>
-      </c>
-      <c r="DF6" s="3" t="inlineStr">
-        <is>
-          <t>8765</t>
-        </is>
-      </c>
-      <c r="DG6" s="3" t="inlineStr">
-        <is>
-          <t>ACME INSURANCE</t>
-        </is>
-      </c>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6"/>
       <c r="DH6"/>
       <c r="DI6"/>
-      <c r="DJ6" s="3" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="DK6" s="3" t="inlineStr">
-        <is>
-          <t>Jane</t>
-        </is>
-      </c>
+      <c r="DJ6"/>
+      <c r="DK6"/>
       <c r="DL6"/>
       <c r="DM6"/>
       <c r="DN6"/>
       <c r="DO6"/>
       <c r="DP6"/>
-      <c r="DQ6" s="4" t="n">
-        <v>43548.0</v>
-      </c>
-      <c r="DR6" s="4" t="n">
-        <v>43549.0</v>
-      </c>
+      <c r="DQ6"/>
+      <c r="DR6"/>
       <c r="DS6" s="4" t="n">
-        <v>44819.0</v>
+        <v>43466.0</v>
       </c>
       <c r="DT6" s="4" t="n">
-        <v>44820.0</v>
+        <v>43470.0</v>
       </c>
       <c r="DU6" s="4" t="n">
-        <v>44835.0</v>
+        <v>43524.0</v>
       </c>
       <c r="DV6" s="4" t="n">
-        <v>44889.0</v>
+        <v>43505.0</v>
       </c>
       <c r="DW6" s="1" t="n">
-        <v>132.0</v>
+        <v>38000.0</v>
       </c>
       <c r="DX6" s="3" t="inlineStr">
         <is>
@@ -2948,21 +2898,11 @@
         </is>
       </c>
       <c r="DZ6" s="1" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="EA6" s="3" t="inlineStr">
-        <is>
-          <t>D8</t>
-        </is>
-      </c>
-      <c r="EB6" s="3" t="inlineStr">
-        <is>
-          <t>DISCOUNT_AMOUNT</t>
-        </is>
-      </c>
-      <c r="EC6" s="1" t="n">
-        <v>100.0</v>
-      </c>
+        <v>38000.0</v>
+      </c>
+      <c r="EA6"/>
+      <c r="EB6"/>
+      <c r="EC6"/>
       <c r="ED6" s="3" t="inlineStr">
         <is>
           <t>CA</t>
@@ -2981,79 +2921,33 @@
       <c r="EI6"/>
       <c r="EJ6" s="3" t="inlineStr">
         <is>
-          <t>A123</t>
-        </is>
-      </c>
-      <c r="EK6" s="3" t="inlineStr">
-        <is>
-          <t>D0120</t>
-        </is>
-      </c>
-      <c r="EL6" s="3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="EM6" s="3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="EK6"/>
+      <c r="EL6"/>
+      <c r="EM6"/>
       <c r="EN6"/>
-      <c r="EO6" s="3" t="inlineStr">
-        <is>
-          <t>0222</t>
-        </is>
-      </c>
+      <c r="EO6"/>
       <c r="EP6"/>
-      <c r="EQ6" s="1" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="ER6" s="1" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="ET6" s="3" t="inlineStr">
-        <is>
-          <t>D0140</t>
-        </is>
-      </c>
-      <c r="EU6" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="EQ6"/>
+      <c r="ER6"/>
+      <c r="ES6"/>
+      <c r="ET6"/>
+      <c r="EU6"/>
       <c r="EV6"/>
       <c r="EW6"/>
       <c r="EX6"/>
       <c r="EY6"/>
-      <c r="EZ6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="FA6" s="4" t="n">
-        <v>43548.0</v>
-      </c>
-      <c r="FB6" s="4" t="n">
-        <v>43548.0</v>
-      </c>
+      <c r="EZ6"/>
+      <c r="FA6"/>
+      <c r="FB6"/>
       <c r="FC6" s="1" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="FD6" s="3" t="inlineStr">
-        <is>
-          <t>CONTRACTUAL</t>
-        </is>
-      </c>
-      <c r="FE6" s="3" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="FF6" s="1" t="n">
-        <v>21.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="FD6"/>
+      <c r="FE6"/>
+      <c r="FF6"/>
       <c r="FG6"/>
       <c r="FH6"/>
       <c r="FI6"/>
@@ -3071,106 +2965,32 @@
       <c r="FU6"/>
       <c r="FV6"/>
       <c r="FW6"/>
-      <c r="FX6" s="3" t="inlineStr">
-        <is>
-          <t>RATE_CODE_NUMBER</t>
-        </is>
-      </c>
-      <c r="FY6" s="3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="FZ6" s="3" t="inlineStr">
-        <is>
-          <t>APG_NUMBER</t>
-        </is>
-      </c>
-      <c r="GA6" s="3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="GB6" s="3" t="inlineStr">
-        <is>
-          <t>AMBULATORY_PAYMENT</t>
-        </is>
-      </c>
-      <c r="GC6" s="3" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="GD6" s="3" t="inlineStr">
-        <is>
-          <t>1234"5</t>
-        </is>
-      </c>
-      <c r="GE6" s="3" t="inlineStr">
-        <is>
-          <t>CMS_NPI</t>
-        </is>
-      </c>
-      <c r="GF6" s="3" t="inlineStr">
-        <is>
-          <t>P123</t>
-        </is>
-      </c>
-      <c r="GG6" s="3" t="inlineStr">
-        <is>
-          <t>MEDICARE_PROVIDER_NUMBER</t>
-        </is>
-      </c>
-      <c r="GH6" s="3" t="inlineStr">
-        <is>
-          <t>P234</t>
-        </is>
-      </c>
-      <c r="GI6" s="1" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="GJ6" s="3" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="GK6" s="3" t="inlineStr">
-        <is>
-          <t>ALLOWED_ACTUAL</t>
-        </is>
-      </c>
-      <c r="GL6" s="1" t="n">
-        <v>25.0</v>
-      </c>
+      <c r="FX6"/>
+      <c r="FY6"/>
+      <c r="FZ6"/>
+      <c r="GA6"/>
+      <c r="GB6"/>
+      <c r="GC6"/>
+      <c r="GD6"/>
+      <c r="GE6"/>
+      <c r="GF6"/>
+      <c r="GG6"/>
+      <c r="GH6"/>
+      <c r="GI6"/>
+      <c r="GJ6"/>
+      <c r="GK6"/>
+      <c r="GL6"/>
       <c r="GM6"/>
       <c r="GN6"/>
       <c r="GO6"/>
-      <c r="GP6" s="3" t="inlineStr">
-        <is>
-          <t>ZL</t>
-        </is>
-      </c>
-      <c r="GQ6" s="3" t="inlineStr">
-        <is>
-          <t>MEDICARE_MEDICAID_CAT_2</t>
-        </is>
-      </c>
-      <c r="GR6" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="GP6"/>
+      <c r="GQ6"/>
+      <c r="GR6"/>
       <c r="GS6"/>
       <c r="GT6"/>
       <c r="GU6"/>
-      <c r="GV6" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="GW6" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="GV6"/>
+      <c r="GW6"/>
       <c r="GX6"/>
       <c r="GY6"/>
       <c r="GZ6"/>
@@ -3178,52 +2998,146 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce147c</t>
-        </is>
-      </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+          <t>68ec56cace2f64368d177871</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>negotiated_discount.dat</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>35681</t>
+        </is>
+      </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>7722337</t>
         </is>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
           <t>119932404007801</t>
         </is>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
+      <c r="Q7" s="1" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>CHECK</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>43555.0</v>
+      </c>
+      <c r="V7" s="3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>1512345678</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>43538.0</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>32405.0</v>
+      </c>
+      <c r="Z7" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="AA7" s="3" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD7" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="AE7" s="3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>30000.0</v>
+      </c>
       <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
+      <c r="AH7" s="3" t="inlineStr">
+        <is>
+          <t>PATIENT_RESPONSIBILITY</t>
+        </is>
+      </c>
+      <c r="AI7" s="3" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>259.0</v>
+      </c>
       <c r="AK7"/>
       <c r="AL7"/>
       <c r="AM7"/>
@@ -3233,17 +3147,57 @@
       <c r="AQ7"/>
       <c r="AR7"/>
       <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
+      <c r="AT7" s="3" t="inlineStr">
+        <is>
+          <t>PAYOR_ID</t>
+        </is>
+      </c>
+      <c r="AU7" s="3" t="inlineStr">
+        <is>
+          <t>0101</t>
+        </is>
+      </c>
+      <c r="AV7" s="3" t="inlineStr">
+        <is>
+          <t>DELTA DENTAL OF ABC</t>
+        </is>
+      </c>
+      <c r="AW7" s="3" t="inlineStr">
+        <is>
+          <t>225 MAIN STREET</t>
+        </is>
+      </c>
       <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BA7"/>
-      <c r="BB7"/>
-      <c r="BC7"/>
-      <c r="BD7"/>
+      <c r="AY7" s="3" t="inlineStr">
+        <is>
+          <t>CENTERVILLE</t>
+        </is>
+      </c>
+      <c r="AZ7" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="BA7" s="3" t="inlineStr">
+        <is>
+          <t>17111</t>
+        </is>
+      </c>
+      <c r="BB7" s="3" t="inlineStr">
+        <is>
+          <t>JANE DOE</t>
+        </is>
+      </c>
+      <c r="BC7" s="3" t="inlineStr">
+        <is>
+          <t>PHONE</t>
+        </is>
+      </c>
+      <c r="BD7" s="3" t="inlineStr">
+        <is>
+          <t>9005555555</t>
+        </is>
+      </c>
       <c r="BE7"/>
       <c r="BF7"/>
       <c r="BG7"/>
@@ -3251,113 +3205,311 @@
       <c r="BI7"/>
       <c r="BJ7"/>
       <c r="BK7"/>
-      <c r="BL7"/>
-      <c r="BM7"/>
-      <c r="BN7"/>
-      <c r="BO7"/>
-      <c r="BP7"/>
-      <c r="BQ7"/>
-      <c r="BR7"/>
-      <c r="BS7"/>
+      <c r="BL7" s="3" t="inlineStr">
+        <is>
+          <t>PAYER_IDENTIFICATION_NUMBER</t>
+        </is>
+      </c>
+      <c r="BM7" s="3" t="inlineStr">
+        <is>
+          <t>0101</t>
+        </is>
+      </c>
+      <c r="BN7" s="3" t="inlineStr">
+        <is>
+          <t>HEALTH_INDUSTRY_NUMBER</t>
+        </is>
+      </c>
+      <c r="BO7" s="3" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="BP7" s="3" t="inlineStr">
+        <is>
+          <t>EIN</t>
+        </is>
+      </c>
+      <c r="BQ7" s="3" t="inlineStr">
+        <is>
+          <t>999994703</t>
+        </is>
+      </c>
+      <c r="BR7" s="3" t="inlineStr">
+        <is>
+          <t>BAN DDS LLC</t>
+        </is>
+      </c>
+      <c r="BS7" s="3" t="inlineStr">
+        <is>
+          <t>225 MAIN STREET</t>
+        </is>
+      </c>
       <c r="BT7"/>
-      <c r="BU7"/>
-      <c r="BV7"/>
-      <c r="BW7"/>
+      <c r="BU7" s="3" t="inlineStr">
+        <is>
+          <t>CENTERVILLE</t>
+        </is>
+      </c>
+      <c r="BV7" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="BW7" s="3" t="inlineStr">
+        <is>
+          <t>17111</t>
+        </is>
+      </c>
       <c r="BX7"/>
-      <c r="BY7"/>
-      <c r="BZ7"/>
+      <c r="BY7" s="3" t="inlineStr">
+        <is>
+          <t>PAYEE_IDENTIFICATION_NUMBER</t>
+        </is>
+      </c>
+      <c r="BZ7" s="3" t="inlineStr">
+        <is>
+          <t>0505</t>
+        </is>
+      </c>
       <c r="CA7"/>
       <c r="CB7"/>
       <c r="CC7"/>
       <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
+      <c r="CE7" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CF7" s="3" t="inlineStr">
+        <is>
+          <t>SALLY</t>
+        </is>
+      </c>
       <c r="CG7"/>
-      <c r="CH7"/>
-      <c r="CI7"/>
-      <c r="CJ7"/>
-      <c r="CK7"/>
+      <c r="CH7" s="3" t="inlineStr">
+        <is>
+          <t>MEMBER_ID</t>
+        </is>
+      </c>
+      <c r="CI7" s="3" t="inlineStr">
+        <is>
+          <t>SJD11111</t>
+        </is>
+      </c>
+      <c r="CJ7" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CK7" s="3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
       <c r="CL7"/>
       <c r="CM7"/>
       <c r="CN7"/>
       <c r="CO7"/>
       <c r="CP7"/>
       <c r="CQ7"/>
-      <c r="CR7"/>
-      <c r="CS7"/>
-      <c r="CT7"/>
-      <c r="CU7"/>
+      <c r="CR7" s="3" t="inlineStr">
+        <is>
+          <t>NPI</t>
+        </is>
+      </c>
+      <c r="CS7" s="3" t="inlineStr">
+        <is>
+          <t>1811901945</t>
+        </is>
+      </c>
+      <c r="CT7" s="3" t="inlineStr">
+        <is>
+          <t>BAN</t>
+        </is>
+      </c>
+      <c r="CU7" s="3" t="inlineStr">
+        <is>
+          <t>ERIN</t>
+        </is>
+      </c>
       <c r="CV7"/>
       <c r="CW7"/>
-      <c r="CX7"/>
-      <c r="CY7"/>
+      <c r="CX7" s="3" t="inlineStr">
+        <is>
+          <t>MEDICARE_PROVIDER_NUMBER</t>
+        </is>
+      </c>
+      <c r="CY7" s="3" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
       <c r="CZ7"/>
       <c r="DA7"/>
-      <c r="DB7"/>
-      <c r="DC7"/>
-      <c r="DD7"/>
-      <c r="DE7"/>
-      <c r="DF7"/>
-      <c r="DG7"/>
+      <c r="DB7" s="3" t="inlineStr">
+        <is>
+          <t>CMS_PLAN_ID</t>
+        </is>
+      </c>
+      <c r="DC7" s="3" t="inlineStr">
+        <is>
+          <t>9876</t>
+        </is>
+      </c>
+      <c r="DD7" s="3" t="inlineStr">
+        <is>
+          <t>ACME INSURANCE</t>
+        </is>
+      </c>
+      <c r="DE7" s="3" t="inlineStr">
+        <is>
+          <t>CMS_PLAN_ID</t>
+        </is>
+      </c>
+      <c r="DF7" s="3" t="inlineStr">
+        <is>
+          <t>8765</t>
+        </is>
+      </c>
+      <c r="DG7" s="3" t="inlineStr">
+        <is>
+          <t>ACME INSURANCE</t>
+        </is>
+      </c>
       <c r="DH7"/>
       <c r="DI7"/>
-      <c r="DJ7"/>
-      <c r="DK7"/>
+      <c r="DJ7" s="3" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="DK7" s="3" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
       <c r="DL7"/>
       <c r="DM7"/>
       <c r="DN7"/>
       <c r="DO7"/>
       <c r="DP7"/>
-      <c r="DQ7"/>
-      <c r="DR7"/>
-      <c r="DS7"/>
-      <c r="DT7"/>
-      <c r="DU7"/>
-      <c r="DV7"/>
-      <c r="DW7"/>
-      <c r="DX7"/>
-      <c r="DY7"/>
-      <c r="DZ7"/>
-      <c r="EA7"/>
-      <c r="EB7"/>
-      <c r="EC7"/>
-      <c r="ED7"/>
-      <c r="EE7"/>
-      <c r="EF7"/>
+      <c r="DQ7" s="4" t="n">
+        <v>43548.0</v>
+      </c>
+      <c r="DR7" s="4" t="n">
+        <v>43549.0</v>
+      </c>
+      <c r="DS7" s="4" t="n">
+        <v>44819.0</v>
+      </c>
+      <c r="DT7" s="4" t="n">
+        <v>44820.0</v>
+      </c>
+      <c r="DU7" s="4" t="n">
+        <v>44835.0</v>
+      </c>
+      <c r="DV7" s="4" t="n">
+        <v>44889.0</v>
+      </c>
+      <c r="DW7" s="1" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="DX7" s="3" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="DY7" s="3" t="inlineStr">
+        <is>
+          <t>COVERAGE_AMOUNT</t>
+        </is>
+      </c>
+      <c r="DZ7" s="1" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="EA7" s="3" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="EB7" s="3" t="inlineStr">
+        <is>
+          <t>DISCOUNT_AMOUNT</t>
+        </is>
+      </c>
+      <c r="EC7" s="1" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="ED7" s="3" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="EE7" s="3" t="inlineStr">
+        <is>
+          <t>COVERED</t>
+        </is>
+      </c>
+      <c r="EF7" t="n">
+        <v>4.0</v>
+      </c>
       <c r="EG7"/>
       <c r="EH7"/>
       <c r="EI7"/>
       <c r="EJ7" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>A123</t>
         </is>
       </c>
       <c r="EK7" s="3" t="inlineStr">
         <is>
-          <t>D0220</t>
-        </is>
-      </c>
-      <c r="EL7"/>
-      <c r="EM7"/>
+          <t>D0120</t>
+        </is>
+      </c>
+      <c r="EL7" s="3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="EM7" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="EN7"/>
-      <c r="EO7"/>
+      <c r="EO7" s="3" t="inlineStr">
+        <is>
+          <t>0222</t>
+        </is>
+      </c>
       <c r="EP7"/>
       <c r="EQ7" s="1" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="ER7" s="1" t="n">
         <v>25.0</v>
       </c>
-      <c r="ER7" s="1" t="n">
-        <v>14.0</v>
-      </c>
       <c r="ES7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="ET7"/>
-      <c r="EU7"/>
+        <v>3.1</v>
+      </c>
+      <c r="ET7" s="3" t="inlineStr">
+        <is>
+          <t>D0140</t>
+        </is>
+      </c>
+      <c r="EU7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="EV7"/>
       <c r="EW7"/>
       <c r="EX7"/>
       <c r="EY7"/>
-      <c r="EZ7"/>
+      <c r="EZ7" t="n">
+        <v>3.5</v>
+      </c>
       <c r="FA7" s="4" t="n">
         <v>43548.0</v>
       </c>
@@ -3365,7 +3517,7 @@
         <v>43548.0</v>
       </c>
       <c r="FC7" s="1" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="FD7" s="3" t="inlineStr">
         <is>
@@ -3378,7 +3530,7 @@
         </is>
       </c>
       <c r="FF7" s="1" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="FG7"/>
       <c r="FH7"/>
@@ -3397,19 +3549,63 @@
       <c r="FU7"/>
       <c r="FV7"/>
       <c r="FW7"/>
-      <c r="FX7"/>
-      <c r="FY7"/>
-      <c r="FZ7"/>
-      <c r="GA7"/>
-      <c r="GB7"/>
-      <c r="GC7"/>
-      <c r="GD7"/>
-      <c r="GE7"/>
-      <c r="GF7"/>
-      <c r="GG7"/>
-      <c r="GH7"/>
+      <c r="FX7" s="3" t="inlineStr">
+        <is>
+          <t>RATE_CODE_NUMBER</t>
+        </is>
+      </c>
+      <c r="FY7" s="3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FZ7" s="3" t="inlineStr">
+        <is>
+          <t>APG_NUMBER</t>
+        </is>
+      </c>
+      <c r="GA7" s="3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="GB7" s="3" t="inlineStr">
+        <is>
+          <t>AMBULATORY_PAYMENT</t>
+        </is>
+      </c>
+      <c r="GC7" s="3" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="GD7" s="3" t="inlineStr">
+        <is>
+          <t>1234"5</t>
+        </is>
+      </c>
+      <c r="GE7" s="3" t="inlineStr">
+        <is>
+          <t>CMS_NPI</t>
+        </is>
+      </c>
+      <c r="GF7" s="3" t="inlineStr">
+        <is>
+          <t>P123</t>
+        </is>
+      </c>
+      <c r="GG7" s="3" t="inlineStr">
+        <is>
+          <t>MEDICARE_PROVIDER_NUMBER</t>
+        </is>
+      </c>
+      <c r="GH7" s="3" t="inlineStr">
+        <is>
+          <t>P234</t>
+        </is>
+      </c>
       <c r="GI7" s="1" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="GJ7" s="3" t="inlineStr">
         <is>
@@ -3422,19 +3618,37 @@
         </is>
       </c>
       <c r="GL7" s="1" t="n">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="GM7"/>
       <c r="GN7"/>
       <c r="GO7"/>
-      <c r="GP7"/>
-      <c r="GQ7"/>
-      <c r="GR7"/>
+      <c r="GP7" s="3" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="GQ7" s="3" t="inlineStr">
+        <is>
+          <t>MEDICARE_MEDICAID_CAT_2</t>
+        </is>
+      </c>
+      <c r="GR7" t="n">
+        <v>3.75</v>
+      </c>
       <c r="GS7"/>
       <c r="GT7"/>
       <c r="GU7"/>
-      <c r="GV7"/>
-      <c r="GW7"/>
+      <c r="GV7" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="GW7" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="GX7"/>
       <c r="GY7"/>
       <c r="GZ7"/>
@@ -3442,7 +3656,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce147c</t>
+          <t>68ec56cace2f64368d177871</t>
         </is>
       </c>
       <c r="B8"/>
@@ -3593,12 +3807,12 @@
       <c r="EI8"/>
       <c r="EJ8" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EK8" s="3" t="inlineStr">
         <is>
-          <t>D0230</t>
+          <t>D0220</t>
         </is>
       </c>
       <c r="EL8"/>
@@ -3607,10 +3821,10 @@
       <c r="EO8"/>
       <c r="EP8"/>
       <c r="EQ8" s="1" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="ER8" s="1" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="ES8" t="n">
         <v>1.0</v>
@@ -3629,7 +3843,7 @@
         <v>43548.0</v>
       </c>
       <c r="FC8" s="1" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="FD8" s="3" t="inlineStr">
         <is>
@@ -3642,7 +3856,7 @@
         </is>
       </c>
       <c r="FF8" s="1" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="FG8"/>
       <c r="FH8"/>
@@ -3673,7 +3887,7 @@
       <c r="GG8"/>
       <c r="GH8"/>
       <c r="GI8" s="1" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="GJ8" s="3" t="inlineStr">
         <is>
@@ -3686,7 +3900,7 @@
         </is>
       </c>
       <c r="GL8" s="1" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="GM8"/>
       <c r="GN8"/>
@@ -3706,7 +3920,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce147c</t>
+          <t>68ec56cace2f64368d177871</t>
         </is>
       </c>
       <c r="B9"/>
@@ -3857,12 +4071,12 @@
       <c r="EI9"/>
       <c r="EJ9" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="EK9" s="3" t="inlineStr">
         <is>
-          <t>D0274</t>
+          <t>D0230</t>
         </is>
       </c>
       <c r="EL9"/>
@@ -3871,10 +4085,10 @@
       <c r="EO9"/>
       <c r="EP9"/>
       <c r="EQ9" s="1" t="n">
-        <v>60.0</v>
+        <v>22.0</v>
       </c>
       <c r="ER9" s="1" t="n">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="ES9" t="n">
         <v>1.0</v>
@@ -3893,7 +4107,7 @@
         <v>43548.0</v>
       </c>
       <c r="FC9" s="1" t="n">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="FD9" s="3" t="inlineStr">
         <is>
@@ -3906,7 +4120,7 @@
         </is>
       </c>
       <c r="FF9" s="1" t="n">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="FG9"/>
       <c r="FH9"/>
@@ -3937,7 +4151,7 @@
       <c r="GG9"/>
       <c r="GH9"/>
       <c r="GI9" s="1" t="n">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="GJ9" s="3" t="inlineStr">
         <is>
@@ -3950,7 +4164,7 @@
         </is>
       </c>
       <c r="GL9" s="1" t="n">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="GM9"/>
       <c r="GN9"/>
@@ -3970,7 +4184,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce147c</t>
+          <t>68ec56cace2f64368d177871</t>
         </is>
       </c>
       <c r="B10"/>
@@ -4121,12 +4335,12 @@
       <c r="EI10"/>
       <c r="EJ10" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="EK10" s="3" t="inlineStr">
         <is>
-          <t>D1110</t>
+          <t>D0274</t>
         </is>
       </c>
       <c r="EL10"/>
@@ -4135,10 +4349,10 @@
       <c r="EO10"/>
       <c r="EP10"/>
       <c r="EQ10" s="1" t="n">
-        <v>73.0</v>
+        <v>60.0</v>
       </c>
       <c r="ER10" s="1" t="n">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="ES10" t="n">
         <v>1.0</v>
@@ -4154,10 +4368,10 @@
         <v>43548.0</v>
       </c>
       <c r="FB10" s="4" t="n">
-        <v>43549.0</v>
+        <v>43548.0</v>
       </c>
       <c r="FC10" s="1" t="n">
-        <v>76.0</v>
+        <v>26.0</v>
       </c>
       <c r="FD10" s="3" t="inlineStr">
         <is>
@@ -4170,36 +4384,16 @@
         </is>
       </c>
       <c r="FF10" s="1" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="FG10"/>
-      <c r="FH10" s="3" t="inlineStr">
-        <is>
-          <t>CONTRACTUAL</t>
-        </is>
-      </c>
-      <c r="FI10" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="FJ10" s="1" t="n">
-        <v>25.0</v>
-      </c>
+      <c r="FH10"/>
+      <c r="FI10"/>
+      <c r="FJ10"/>
       <c r="FK10"/>
-      <c r="FL10" s="3" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="FM10" s="3" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="FN10" s="1" t="n">
-        <v>27.0</v>
-      </c>
+      <c r="FL10"/>
+      <c r="FM10"/>
+      <c r="FN10"/>
       <c r="FO10"/>
       <c r="FP10"/>
       <c r="FQ10"/>
@@ -4221,7 +4415,7 @@
       <c r="GG10"/>
       <c r="GH10"/>
       <c r="GI10" s="1" t="n">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="GJ10" s="3" t="inlineStr">
         <is>
@@ -4234,21 +4428,11 @@
         </is>
       </c>
       <c r="GL10" s="1" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="GM10" s="3" t="inlineStr">
-        <is>
-          <t>KH</t>
-        </is>
-      </c>
-      <c r="GN10" s="3" t="inlineStr">
-        <is>
-          <t>DEDUCTION</t>
-        </is>
-      </c>
-      <c r="GO10" s="1" t="n">
-        <v>50.0</v>
-      </c>
+        <v>34.0</v>
+      </c>
+      <c r="GM10"/>
+      <c r="GN10"/>
+      <c r="GO10"/>
       <c r="GP10"/>
       <c r="GQ10"/>
       <c r="GR10"/>
@@ -4264,103 +4448,41 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce149f</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>835</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>dollars_data_separate.dat</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>112233</t>
-        </is>
-      </c>
+          <t>68ec56cace2f64368d177871</t>
+        </is>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>5554555444</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>PRIMARY</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>7722337</t>
+        </is>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>94060555410000</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>119932404007801</t>
+        </is>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
-      <c r="Q11" s="1" t="n">
-        <v>1100.0</v>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="S11" s="3" t="inlineStr">
-        <is>
-          <t>ACH</t>
-        </is>
-      </c>
-      <c r="T11" s="3" t="inlineStr">
-        <is>
-          <t>144444</t>
-        </is>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>43540.0</v>
-      </c>
-      <c r="V11" s="3" t="inlineStr">
-        <is>
-          <t>71700666555</t>
-        </is>
-      </c>
-      <c r="W11" s="3" t="inlineStr">
-        <is>
-          <t>1935665544</t>
-        </is>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>43538.0</v>
-      </c>
-      <c r="Y11" s="1" t="n">
-        <v>300.0</v>
-      </c>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11"/>
@@ -4382,62 +4504,18 @@
       <c r="AR11"/>
       <c r="AS11"/>
       <c r="AT11"/>
-      <c r="AU11" s="3" t="inlineStr">
-        <is>
-          <t>1935665544</t>
-        </is>
-      </c>
-      <c r="AV11" s="3" t="inlineStr">
-        <is>
-          <t>RUSHMORE LIFE</t>
-        </is>
-      </c>
-      <c r="AW11" s="3" t="inlineStr">
-        <is>
-          <t>10 SOUTH AVENUET</t>
-        </is>
-      </c>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
       <c r="AX11"/>
-      <c r="AY11" s="3" t="inlineStr">
-        <is>
-          <t>RAPID CITY</t>
-        </is>
-      </c>
-      <c r="AZ11" s="3" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="BA11" s="3" t="inlineStr">
-        <is>
-          <t>55111</t>
-        </is>
-      </c>
-      <c r="BB11" s="3" t="inlineStr">
-        <is>
-          <t>JOHN WAYNE</t>
-        </is>
-      </c>
-      <c r="BC11" s="3" t="inlineStr">
-        <is>
-          <t>PHONE</t>
-        </is>
-      </c>
-      <c r="BD11" s="3" t="inlineStr">
-        <is>
-          <t>8005551212</t>
-        </is>
-      </c>
-      <c r="BE11" s="3" t="inlineStr">
-        <is>
-          <t>EXTENSION</t>
-        </is>
-      </c>
-      <c r="BF11" s="3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
       <c r="BG11"/>
       <c r="BH11"/>
       <c r="BI11"/>
@@ -4447,21 +4525,9 @@
       <c r="BM11"/>
       <c r="BN11"/>
       <c r="BO11"/>
-      <c r="BP11" s="3" t="inlineStr">
-        <is>
-          <t>NPI</t>
-        </is>
-      </c>
-      <c r="BQ11" s="3" t="inlineStr">
-        <is>
-          <t>5544667733</t>
-        </is>
-      </c>
-      <c r="BR11" s="3" t="inlineStr">
-        <is>
-          <t>ACME MEDICAL CENTER</t>
-        </is>
-      </c>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
       <c r="BS11"/>
       <c r="BT11"/>
       <c r="BU11"/>
@@ -4472,47 +4538,15 @@
       <c r="BZ11"/>
       <c r="CA11"/>
       <c r="CB11"/>
-      <c r="CC11" s="3" t="inlineStr">
-        <is>
-          <t>MEMBER_ID</t>
-        </is>
-      </c>
-      <c r="CD11" s="3" t="inlineStr">
-        <is>
-          <t>33344555510</t>
-        </is>
-      </c>
-      <c r="CE11" s="3" t="inlineStr">
-        <is>
-          <t>BUDD</t>
-        </is>
-      </c>
-      <c r="CF11" s="3" t="inlineStr">
-        <is>
-          <t>WILLIAM</t>
-        </is>
-      </c>
+      <c r="CC11"/>
+      <c r="CD11"/>
+      <c r="CE11"/>
+      <c r="CF11"/>
       <c r="CG11"/>
-      <c r="CH11" s="3" t="inlineStr">
-        <is>
-          <t>MEMBER_ID</t>
-        </is>
-      </c>
-      <c r="CI11" s="3" t="inlineStr">
-        <is>
-          <t>33344555510</t>
-        </is>
-      </c>
-      <c r="CJ11" s="3" t="inlineStr">
-        <is>
-          <t>BUDD</t>
-        </is>
-      </c>
-      <c r="CK11" s="3" t="inlineStr">
-        <is>
-          <t>WILLIAM</t>
-        </is>
-      </c>
+      <c r="CH11"/>
+      <c r="CI11"/>
+      <c r="CJ11"/>
+      <c r="CK11"/>
       <c r="CL11"/>
       <c r="CM11"/>
       <c r="CN11"/>
@@ -4544,32 +4578,16 @@
       <c r="DN11"/>
       <c r="DO11"/>
       <c r="DP11"/>
-      <c r="DQ11" s="4" t="n">
-        <v>44986.0</v>
-      </c>
-      <c r="DR11" s="4" t="n">
-        <v>44986.0</v>
-      </c>
+      <c r="DQ11"/>
+      <c r="DR11"/>
       <c r="DS11"/>
       <c r="DT11"/>
       <c r="DU11"/>
       <c r="DV11"/>
-      <c r="DW11" s="1" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="DX11" s="3" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="DY11" s="3" t="inlineStr">
-        <is>
-          <t>COVERAGE_AMOUNT</t>
-        </is>
-      </c>
-      <c r="DZ11" s="1" t="n">
-        <v>800.0</v>
-      </c>
+      <c r="DW11"/>
+      <c r="DX11"/>
+      <c r="DY11"/>
+      <c r="DZ11"/>
       <c r="EA11"/>
       <c r="EB11"/>
       <c r="EC11"/>
@@ -4581,12 +4599,12 @@
       <c r="EI11"/>
       <c r="EJ11" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="EK11" s="3" t="inlineStr">
         <is>
-          <t>99211</t>
+          <t>D1110</t>
         </is>
       </c>
       <c r="EL11"/>
@@ -4595,10 +4613,10 @@
       <c r="EO11"/>
       <c r="EP11"/>
       <c r="EQ11" s="1" t="n">
-        <v>800.0</v>
+        <v>73.0</v>
       </c>
       <c r="ER11" s="1" t="n">
-        <v>500.0</v>
+        <v>49.0</v>
       </c>
       <c r="ES11" t="n">
         <v>1.0</v>
@@ -4611,35 +4629,55 @@
       <c r="EY11"/>
       <c r="EZ11"/>
       <c r="FA11" s="4" t="n">
-        <v>44986.0</v>
+        <v>43548.0</v>
       </c>
       <c r="FB11" s="4" t="n">
-        <v>44986.0</v>
+        <v>43549.0</v>
       </c>
       <c r="FC11" s="1" t="n">
-        <v>300.0</v>
+        <v>76.0</v>
       </c>
       <c r="FD11" s="3" t="inlineStr">
         <is>
-          <t>PATIENT_RESPONSIBILITY</t>
+          <t>CONTRACTUAL</t>
         </is>
       </c>
       <c r="FE11" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>131</t>
         </is>
       </c>
       <c r="FF11" s="1" t="n">
-        <v>300.0</v>
+        <v>24.0</v>
       </c>
       <c r="FG11"/>
-      <c r="FH11"/>
-      <c r="FI11"/>
-      <c r="FJ11"/>
+      <c r="FH11" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="FI11" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="FJ11" s="1" t="n">
+        <v>25.0</v>
+      </c>
       <c r="FK11"/>
-      <c r="FL11"/>
-      <c r="FM11"/>
-      <c r="FN11"/>
+      <c r="FL11" s="3" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="FM11" s="3" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="FN11" s="1" t="n">
+        <v>27.0</v>
+      </c>
       <c r="FO11"/>
       <c r="FP11"/>
       <c r="FQ11"/>
@@ -4661,7 +4699,7 @@
       <c r="GG11"/>
       <c r="GH11"/>
       <c r="GI11" s="1" t="n">
-        <v>800.0</v>
+        <v>49.0</v>
       </c>
       <c r="GJ11" s="3" t="inlineStr">
         <is>
@@ -4674,11 +4712,21 @@
         </is>
       </c>
       <c r="GL11" s="1" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="GM11"/>
-      <c r="GN11"/>
-      <c r="GO11"/>
+        <v>49.0</v>
+      </c>
+      <c r="GM11" s="3" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="GN11" s="3" t="inlineStr">
+        <is>
+          <t>DEDUCTION</t>
+        </is>
+      </c>
+      <c r="GO11" s="1" t="n">
+        <v>50.0</v>
+      </c>
       <c r="GP11"/>
       <c r="GQ11"/>
       <c r="GR11"/>
@@ -4694,7 +4742,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce14a0</t>
+          <t>68ec56cace2f64368d177896</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -4714,7 +4762,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>8765432112</t>
+          <t>5554555444</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -4723,13 +4771,13 @@
         </is>
       </c>
       <c r="G12" s="1" t="n">
-        <v>1200.0</v>
+        <v>800.0</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>600.0</v>
+        <v>500.0</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -4738,7 +4786,7 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>9407779923000</t>
+          <t>94060555410000</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -4789,7 +4837,7 @@
         <v>43538.0</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="Z12"/>
       <c r="AA12"/>
@@ -4811,7 +4859,11 @@
       <c r="AQ12"/>
       <c r="AR12"/>
       <c r="AS12"/>
-      <c r="AT12"/>
+      <c r="AT12" s="3" t="inlineStr">
+        <is>
+          <t>PAYOR_ID</t>
+        </is>
+      </c>
       <c r="AU12" s="3" t="inlineStr">
         <is>
           <t>1935665544</t>
@@ -4909,17 +4961,17 @@
       </c>
       <c r="CD12" s="3" t="inlineStr">
         <is>
-          <t>44455666610</t>
+          <t>33344555510</t>
         </is>
       </c>
       <c r="CE12" s="3" t="inlineStr">
         <is>
-          <t>SETTLE</t>
+          <t>BUDD</t>
         </is>
       </c>
       <c r="CF12" s="3" t="inlineStr">
         <is>
-          <t>SUSAN</t>
+          <t>WILLIAM</t>
         </is>
       </c>
       <c r="CG12"/>
@@ -4930,17 +4982,17 @@
       </c>
       <c r="CI12" s="3" t="inlineStr">
         <is>
-          <t>44455666610</t>
+          <t>33344555510</t>
         </is>
       </c>
       <c r="CJ12" s="3" t="inlineStr">
         <is>
-          <t>SETTLE</t>
+          <t>BUDD</t>
         </is>
       </c>
       <c r="CK12" s="3" t="inlineStr">
         <is>
-          <t>SUSAN</t>
+          <t>WILLIAM</t>
         </is>
       </c>
       <c r="CL12"/>
@@ -4975,17 +5027,17 @@
       <c r="DO12"/>
       <c r="DP12"/>
       <c r="DQ12" s="4" t="n">
-        <v>44995.0</v>
+        <v>44986.0</v>
       </c>
       <c r="DR12" s="4" t="n">
-        <v>44995.0</v>
+        <v>44986.0</v>
       </c>
       <c r="DS12"/>
       <c r="DT12"/>
       <c r="DU12"/>
       <c r="DV12"/>
       <c r="DW12" s="1" t="n">
-        <v>1200.0</v>
+        <v>800.0</v>
       </c>
       <c r="DX12" s="3" t="inlineStr">
         <is>
@@ -4998,7 +5050,7 @@
         </is>
       </c>
       <c r="DZ12" s="1" t="n">
-        <v>1200.0</v>
+        <v>800.0</v>
       </c>
       <c r="EA12"/>
       <c r="EB12"/>
@@ -5016,7 +5068,7 @@
       </c>
       <c r="EK12" s="3" t="inlineStr">
         <is>
-          <t>93555</t>
+          <t>99211</t>
         </is>
       </c>
       <c r="EL12"/>
@@ -5025,10 +5077,10 @@
       <c r="EO12"/>
       <c r="EP12"/>
       <c r="EQ12" s="1" t="n">
-        <v>1200.0</v>
+        <v>800.0</v>
       </c>
       <c r="ER12" s="1" t="n">
-        <v>600.0</v>
+        <v>500.0</v>
       </c>
       <c r="ES12" t="n">
         <v>1.0</v>
@@ -5041,13 +5093,13 @@
       <c r="EY12"/>
       <c r="EZ12"/>
       <c r="FA12" s="4" t="n">
-        <v>44995.0</v>
+        <v>44986.0</v>
       </c>
       <c r="FB12" s="4" t="n">
-        <v>44995.0</v>
+        <v>44986.0</v>
       </c>
       <c r="FC12" s="1" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="FD12" s="3" t="inlineStr">
         <is>
@@ -5060,7 +5112,7 @@
         </is>
       </c>
       <c r="FF12" s="1" t="n">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="FG12"/>
       <c r="FH12"/>
@@ -5091,7 +5143,7 @@
       <c r="GG12"/>
       <c r="GH12"/>
       <c r="GI12" s="1" t="n">
-        <v>1200.0</v>
+        <v>800.0</v>
       </c>
       <c r="GJ12" s="3" t="inlineStr">
         <is>
@@ -5104,7 +5156,7 @@
         </is>
       </c>
       <c r="GL12" s="1" t="n">
-        <v>1200.0</v>
+        <v>800.0</v>
       </c>
       <c r="GM12"/>
       <c r="GN12"/>
@@ -5124,7 +5176,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce14f4</t>
+          <t>68ec56cace2f64368d177897</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -5134,17 +5186,17 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>835-all-fields.dat</t>
+          <t>dollars_data_separate.dat</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>35681</t>
+          <t>112233</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>7722337</t>
+          <t>8765432112</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -5153,13 +5205,13 @@
         </is>
       </c>
       <c r="G13" s="1" t="n">
-        <v>226.0</v>
+        <v>1200.0</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>132.0</v>
+        <v>600.0</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>10.0</v>
+        <v>600.0</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -5168,7 +5220,7 @@
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>119932404007801</t>
+          <t>9407779923000</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
@@ -5181,19 +5233,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
       <c r="Q13" s="1" t="n">
-        <v>132.0</v>
+        <v>1100.0</v>
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
@@ -5202,76 +5246,44 @@
       </c>
       <c r="S13" s="3" t="inlineStr">
         <is>
-          <t>CHECK</t>
+          <t>ACH</t>
         </is>
       </c>
       <c r="T13" s="3" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>144444</t>
         </is>
       </c>
       <c r="U13" s="4" t="n">
-        <v>43555.0</v>
+        <v>43540.0</v>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>71700666555</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>1512345678</t>
+          <t>1935665544</t>
         </is>
       </c>
       <c r="X13" s="4" t="n">
         <v>43538.0</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>32405.0</v>
-      </c>
-      <c r="Z13" s="3" t="inlineStr">
-        <is>
-          <t>CONTRACTUAL</t>
-        </is>
-      </c>
-      <c r="AA13" s="3" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AB13" s="1" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD13" s="3" t="inlineStr">
-        <is>
-          <t>CONTRACTUAL</t>
-        </is>
-      </c>
-      <c r="AE13" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="AF13" s="1" t="n">
-        <v>30000.0</v>
-      </c>
+        <v>600.0</v>
+      </c>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
       <c r="AG13"/>
-      <c r="AH13" s="3" t="inlineStr">
-        <is>
-          <t>PATIENT_RESPONSIBILITY</t>
-        </is>
-      </c>
-      <c r="AI13" s="3" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="AJ13" s="1" t="n">
-        <v>259.0</v>
-      </c>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13"/>
       <c r="AM13"/>
@@ -5281,37 +5293,45 @@
       <c r="AQ13"/>
       <c r="AR13"/>
       <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
+      <c r="AT13" s="3" t="inlineStr">
+        <is>
+          <t>PAYOR_ID</t>
+        </is>
+      </c>
+      <c r="AU13" s="3" t="inlineStr">
+        <is>
+          <t>1935665544</t>
+        </is>
+      </c>
       <c r="AV13" s="3" t="inlineStr">
         <is>
-          <t>DELTA DENTAL OF ABC</t>
+          <t>RUSHMORE LIFE</t>
         </is>
       </c>
       <c r="AW13" s="3" t="inlineStr">
         <is>
-          <t>225 MAIN STREET</t>
+          <t>10 SOUTH AVENUET</t>
         </is>
       </c>
       <c r="AX13"/>
       <c r="AY13" s="3" t="inlineStr">
         <is>
-          <t>CENTERVILLE</t>
+          <t>RAPID CITY</t>
         </is>
       </c>
       <c r="AZ13" s="3" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="BA13" s="3" t="inlineStr">
         <is>
-          <t>17111</t>
+          <t>55111</t>
         </is>
       </c>
       <c r="BB13" s="3" t="inlineStr">
         <is>
-          <t>JANE DOE</t>
+          <t>JOHN WAYNE</t>
         </is>
       </c>
       <c r="BC13" s="3" t="inlineStr">
@@ -5321,7 +5341,7 @@
       </c>
       <c r="BD13" s="3" t="inlineStr">
         <is>
-          <t>9005555555</t>
+          <t>8005551212</t>
         </is>
       </c>
       <c r="BE13" s="3" t="inlineStr">
@@ -5335,97 +5355,57 @@
         </is>
       </c>
       <c r="BG13"/>
-      <c r="BH13" s="3" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="BI13" s="3" t="inlineStr">
-        <is>
-          <t>myplan.com/policies</t>
-        </is>
-      </c>
+      <c r="BH13"/>
+      <c r="BI13"/>
       <c r="BJ13"/>
       <c r="BK13"/>
-      <c r="BL13" s="3" t="inlineStr">
-        <is>
-          <t>PAYER_IDENTIFICATION_NUMBER</t>
-        </is>
-      </c>
-      <c r="BM13" s="3" t="inlineStr">
-        <is>
-          <t>0101</t>
-        </is>
-      </c>
-      <c r="BN13" s="3" t="inlineStr">
-        <is>
-          <t>HEALTH_INDUSTRY_NUMBER</t>
-        </is>
-      </c>
-      <c r="BO13" s="3" t="inlineStr">
-        <is>
-          <t>0202</t>
-        </is>
-      </c>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
       <c r="BP13" s="3" t="inlineStr">
         <is>
-          <t>EIN</t>
+          <t>NPI</t>
         </is>
       </c>
       <c r="BQ13" s="3" t="inlineStr">
         <is>
-          <t>999994703</t>
+          <t>5544667733</t>
         </is>
       </c>
       <c r="BR13" s="3" t="inlineStr">
         <is>
-          <t>BAN DDS LLC</t>
-        </is>
-      </c>
-      <c r="BS13" s="3" t="inlineStr">
-        <is>
-          <t>225 MAIN STREET</t>
-        </is>
-      </c>
+          <t>ACME MEDICAL CENTER</t>
+        </is>
+      </c>
+      <c r="BS13"/>
       <c r="BT13"/>
-      <c r="BU13" s="3" t="inlineStr">
-        <is>
-          <t>CENTERVILLE</t>
-        </is>
-      </c>
-      <c r="BV13" s="3" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="BW13" s="3" t="inlineStr">
-        <is>
-          <t>17111</t>
-        </is>
-      </c>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
       <c r="BX13"/>
-      <c r="BY13" s="3" t="inlineStr">
-        <is>
-          <t>PAYEE_IDENTIFICATION_NUMBER</t>
-        </is>
-      </c>
-      <c r="BZ13" s="3" t="inlineStr">
-        <is>
-          <t>0505</t>
-        </is>
-      </c>
+      <c r="BY13"/>
+      <c r="BZ13"/>
       <c r="CA13"/>
       <c r="CB13"/>
-      <c r="CC13"/>
-      <c r="CD13"/>
+      <c r="CC13" s="3" t="inlineStr">
+        <is>
+          <t>MEMBER_ID</t>
+        </is>
+      </c>
+      <c r="CD13" s="3" t="inlineStr">
+        <is>
+          <t>44455666610</t>
+        </is>
+      </c>
       <c r="CE13" s="3" t="inlineStr">
         <is>
-          <t>DOE</t>
+          <t>SETTLE</t>
         </is>
       </c>
       <c r="CF13" s="3" t="inlineStr">
         <is>
-          <t>SALLY</t>
+          <t>SUSAN</t>
         </is>
       </c>
       <c r="CG13"/>
@@ -5436,138 +5416,62 @@
       </c>
       <c r="CI13" s="3" t="inlineStr">
         <is>
-          <t>SJD11111</t>
+          <t>44455666610</t>
         </is>
       </c>
       <c r="CJ13" s="3" t="inlineStr">
         <is>
-          <t>DOE</t>
+          <t>SETTLE</t>
         </is>
       </c>
       <c r="CK13" s="3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>SUSAN</t>
         </is>
       </c>
       <c r="CL13"/>
-      <c r="CM13" s="3" t="inlineStr">
-        <is>
-          <t>INSURED_CHANGED_ID</t>
-        </is>
-      </c>
-      <c r="CN13" s="3" t="inlineStr">
-        <is>
-          <t>SJD999</t>
-        </is>
-      </c>
-      <c r="CO13" s="3" t="inlineStr">
-        <is>
-          <t>Due</t>
-        </is>
-      </c>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
       <c r="CP13"/>
       <c r="CQ13"/>
-      <c r="CR13" s="3" t="inlineStr">
-        <is>
-          <t>NPI</t>
-        </is>
-      </c>
-      <c r="CS13" s="3" t="inlineStr">
-        <is>
-          <t>1811901945</t>
-        </is>
-      </c>
-      <c r="CT13" s="3" t="inlineStr">
-        <is>
-          <t>BAN</t>
-        </is>
-      </c>
-      <c r="CU13" s="3" t="inlineStr">
-        <is>
-          <t>ERIN</t>
-        </is>
-      </c>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
       <c r="CV13"/>
       <c r="CW13"/>
-      <c r="CX13" s="3" t="inlineStr">
-        <is>
-          <t>MEDICARE_PROVIDER_NUMBER</t>
-        </is>
-      </c>
-      <c r="CY13" s="3" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
+      <c r="CX13"/>
+      <c r="CY13"/>
       <c r="CZ13"/>
       <c r="DA13"/>
-      <c r="DB13" s="3" t="inlineStr">
-        <is>
-          <t>CMS_PLAN_ID</t>
-        </is>
-      </c>
-      <c r="DC13" s="3" t="inlineStr">
-        <is>
-          <t>9876</t>
-        </is>
-      </c>
-      <c r="DD13" s="3" t="inlineStr">
-        <is>
-          <t>ACME INSURANCE</t>
-        </is>
-      </c>
-      <c r="DE13" s="3" t="inlineStr">
-        <is>
-          <t>CMS_PLAN_ID</t>
-        </is>
-      </c>
-      <c r="DF13" s="3" t="inlineStr">
-        <is>
-          <t>8765</t>
-        </is>
-      </c>
-      <c r="DG13" s="3" t="inlineStr">
-        <is>
-          <t>ACME INSURANCE</t>
-        </is>
-      </c>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
       <c r="DH13"/>
       <c r="DI13"/>
-      <c r="DJ13" s="3" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="DK13" s="3" t="inlineStr">
-        <is>
-          <t>Jane</t>
-        </is>
-      </c>
+      <c r="DJ13"/>
+      <c r="DK13"/>
       <c r="DL13"/>
       <c r="DM13"/>
       <c r="DN13"/>
       <c r="DO13"/>
       <c r="DP13"/>
       <c r="DQ13" s="4" t="n">
-        <v>43548.0</v>
+        <v>44995.0</v>
       </c>
       <c r="DR13" s="4" t="n">
-        <v>43549.0</v>
-      </c>
-      <c r="DS13" s="4" t="n">
-        <v>44819.0</v>
-      </c>
-      <c r="DT13" s="4" t="n">
-        <v>44820.0</v>
-      </c>
-      <c r="DU13" s="4" t="n">
-        <v>44835.0</v>
-      </c>
-      <c r="DV13" s="4" t="n">
-        <v>44889.0</v>
-      </c>
+        <v>44995.0</v>
+      </c>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
       <c r="DW13" s="1" t="n">
-        <v>132.0</v>
+        <v>1200.0</v>
       </c>
       <c r="DX13" s="3" t="inlineStr">
         <is>
@@ -5580,111 +5484,69 @@
         </is>
       </c>
       <c r="DZ13" s="1" t="n">
-        <v>132.0</v>
-      </c>
-      <c r="EA13" s="3" t="inlineStr">
-        <is>
-          <t>D8</t>
-        </is>
-      </c>
-      <c r="EB13" s="3" t="inlineStr">
-        <is>
-          <t>DISCOUNT_AMOUNT</t>
-        </is>
-      </c>
-      <c r="EC13" s="1" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="ED13" s="3" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="EE13" s="3" t="inlineStr">
-        <is>
-          <t>COVERED</t>
-        </is>
-      </c>
-      <c r="EF13" t="n">
-        <v>4.0</v>
-      </c>
+        <v>1200.0</v>
+      </c>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
       <c r="EG13"/>
       <c r="EH13"/>
       <c r="EI13"/>
       <c r="EJ13" s="3" t="inlineStr">
         <is>
-          <t>A123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="EK13" s="3" t="inlineStr">
         <is>
-          <t>D0120</t>
-        </is>
-      </c>
-      <c r="EL13" s="3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="EM13" s="3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>93555</t>
+        </is>
+      </c>
+      <c r="EL13"/>
+      <c r="EM13"/>
       <c r="EN13"/>
-      <c r="EO13" s="3" t="inlineStr">
-        <is>
-          <t>0022</t>
-        </is>
-      </c>
+      <c r="EO13"/>
       <c r="EP13"/>
       <c r="EQ13" s="1" t="n">
-        <v>46.0</v>
+        <v>1200.0</v>
       </c>
       <c r="ER13" s="1" t="n">
-        <v>25.0</v>
+        <v>600.0</v>
       </c>
       <c r="ES13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="ET13" s="3" t="inlineStr">
-        <is>
-          <t>D0140</t>
-        </is>
-      </c>
-      <c r="EU13" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="ET13"/>
+      <c r="EU13"/>
       <c r="EV13"/>
       <c r="EW13"/>
       <c r="EX13"/>
       <c r="EY13"/>
-      <c r="EZ13" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="EZ13"/>
       <c r="FA13" s="4" t="n">
-        <v>43548.0</v>
+        <v>44995.0</v>
       </c>
       <c r="FB13" s="4" t="n">
-        <v>43548.0</v>
+        <v>44995.0</v>
       </c>
       <c r="FC13" s="1" t="n">
-        <v>21.0</v>
+        <v>600.0</v>
       </c>
       <c r="FD13" s="3" t="inlineStr">
         <is>
-          <t>CONTRACTUAL</t>
+          <t>PATIENT_RESPONSIBILITY</t>
         </is>
       </c>
       <c r="FE13" s="3" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>1</t>
         </is>
       </c>
       <c r="FF13" s="1" t="n">
-        <v>21.0</v>
+        <v>600.0</v>
       </c>
       <c r="FG13"/>
       <c r="FH13"/>
@@ -5703,63 +5565,19 @@
       <c r="FU13"/>
       <c r="FV13"/>
       <c r="FW13"/>
-      <c r="FX13" s="3" t="inlineStr">
-        <is>
-          <t>RATE_CODE_NUMBER</t>
-        </is>
-      </c>
-      <c r="FY13" s="3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="FZ13" s="3" t="inlineStr">
-        <is>
-          <t>APG_NUMBER</t>
-        </is>
-      </c>
-      <c r="GA13" s="3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="GB13" s="3" t="inlineStr">
-        <is>
-          <t>AMBULATORY_PAYMENT</t>
-        </is>
-      </c>
-      <c r="GC13" s="3" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="GD13" s="3" t="inlineStr">
-        <is>
-          <t>1234"5</t>
-        </is>
-      </c>
-      <c r="GE13" s="3" t="inlineStr">
-        <is>
-          <t>CMS_NPI</t>
-        </is>
-      </c>
-      <c r="GF13" s="3" t="inlineStr">
-        <is>
-          <t>P123</t>
-        </is>
-      </c>
-      <c r="GG13" s="3" t="inlineStr">
-        <is>
-          <t>MEDICARE_PROVIDER_NUMBER</t>
-        </is>
-      </c>
-      <c r="GH13" s="3" t="inlineStr">
-        <is>
-          <t>P234</t>
-        </is>
-      </c>
+      <c r="FX13"/>
+      <c r="FY13"/>
+      <c r="FZ13"/>
+      <c r="GA13"/>
+      <c r="GB13"/>
+      <c r="GC13"/>
+      <c r="GD13"/>
+      <c r="GE13"/>
+      <c r="GF13"/>
+      <c r="GG13"/>
+      <c r="GH13"/>
       <c r="GI13" s="1" t="n">
-        <v>25.0</v>
+        <v>1200.0</v>
       </c>
       <c r="GJ13" s="3" t="inlineStr">
         <is>
@@ -5772,37 +5590,19 @@
         </is>
       </c>
       <c r="GL13" s="1" t="n">
-        <v>25.0</v>
+        <v>1200.0</v>
       </c>
       <c r="GM13"/>
       <c r="GN13"/>
       <c r="GO13"/>
-      <c r="GP13" s="3" t="inlineStr">
-        <is>
-          <t>ZL</t>
-        </is>
-      </c>
-      <c r="GQ13" s="3" t="inlineStr">
-        <is>
-          <t>MEDICARE_MEDICAID_CAT_2</t>
-        </is>
-      </c>
-      <c r="GR13" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="GP13"/>
+      <c r="GQ13"/>
+      <c r="GR13"/>
       <c r="GS13"/>
       <c r="GT13"/>
       <c r="GU13"/>
-      <c r="GV13" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="GW13" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+      <c r="GV13"/>
+      <c r="GW13"/>
       <c r="GX13"/>
       <c r="GY13"/>
       <c r="GZ13"/>
@@ -5810,41 +5610,97 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce14f4</t>
-        </is>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+          <t>68ec56cace2f64368d1778bb</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>835-denial.dat</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>10060875</t>
+        </is>
+      </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>7722337</t>
-        </is>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
+          <t>PATACCT</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>DENIED</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.0</v>
+      </c>
       <c r="I14"/>
-      <c r="J14"/>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>119932404007801</t>
-        </is>
-      </c>
-      <c r="L14"/>
-      <c r="M14"/>
+          <t>CLAIMNUMBER</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
+      <c r="Q14" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>NON_PAYMENT</t>
+        </is>
+      </c>
       <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
+      <c r="U14" s="4" t="n">
+        <v>43693.0</v>
+      </c>
+      <c r="V14" s="3" t="inlineStr">
+        <is>
+          <t>TRACE123</t>
+        </is>
+      </c>
+      <c r="W14" s="3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>43704.0</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>150.0</v>
+      </c>
       <c r="Z14"/>
       <c r="AA14"/>
       <c r="AB14"/>
@@ -5865,51 +5721,175 @@
       <c r="AQ14"/>
       <c r="AR14"/>
       <c r="AS14"/>
-      <c r="AT14"/>
-      <c r="AU14"/>
-      <c r="AV14"/>
-      <c r="AW14"/>
+      <c r="AT14" s="3" t="inlineStr">
+        <is>
+          <t>PAYOR_ID</t>
+        </is>
+      </c>
+      <c r="AU14" s="3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="AV14" s="3" t="inlineStr">
+        <is>
+          <t>ANY PLAN USA</t>
+        </is>
+      </c>
+      <c r="AW14" s="3" t="inlineStr">
+        <is>
+          <t>1 WALK THIS WAY</t>
+        </is>
+      </c>
       <c r="AX14"/>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BA14"/>
+      <c r="AY14" s="3" t="inlineStr">
+        <is>
+          <t>ANYCITY</t>
+        </is>
+      </c>
+      <c r="AZ14" s="3" t="inlineStr">
+        <is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="BA14" s="3" t="inlineStr">
+        <is>
+          <t>45209</t>
+        </is>
+      </c>
       <c r="BB14"/>
-      <c r="BC14"/>
-      <c r="BD14"/>
+      <c r="BC14" s="3" t="inlineStr">
+        <is>
+          <t>PHONE</t>
+        </is>
+      </c>
+      <c r="BD14" s="3" t="inlineStr">
+        <is>
+          <t>8661112222</t>
+        </is>
+      </c>
       <c r="BE14"/>
       <c r="BF14"/>
-      <c r="BG14"/>
-      <c r="BH14"/>
-      <c r="BI14"/>
-      <c r="BJ14"/>
-      <c r="BK14"/>
+      <c r="BG14" s="3" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="BH14" s="3" t="inlineStr">
+        <is>
+          <t>PHONE</t>
+        </is>
+      </c>
+      <c r="BI14" s="3" t="inlineStr">
+        <is>
+          <t>8002223333</t>
+        </is>
+      </c>
+      <c r="BJ14" s="3" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="BK14" s="3" t="inlineStr">
+        <is>
+          <t>EDI.SUPPORT@ANYPAYER.COM</t>
+        </is>
+      </c>
       <c r="BL14"/>
       <c r="BM14"/>
       <c r="BN14"/>
       <c r="BO14"/>
-      <c r="BP14"/>
-      <c r="BQ14"/>
-      <c r="BR14"/>
-      <c r="BS14"/>
+      <c r="BP14" s="3" t="inlineStr">
+        <is>
+          <t>NPI</t>
+        </is>
+      </c>
+      <c r="BQ14" s="3" t="inlineStr">
+        <is>
+          <t>1123454567</t>
+        </is>
+      </c>
+      <c r="BR14" s="3" t="inlineStr">
+        <is>
+          <t>PROVIDER</t>
+        </is>
+      </c>
+      <c r="BS14" s="3" t="inlineStr">
+        <is>
+          <t>2255 ANY ROAD</t>
+        </is>
+      </c>
       <c r="BT14"/>
-      <c r="BU14"/>
-      <c r="BV14"/>
-      <c r="BW14"/>
+      <c r="BU14" s="3" t="inlineStr">
+        <is>
+          <t>ANY CITY</t>
+        </is>
+      </c>
+      <c r="BV14" s="3" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="BW14" s="3" t="inlineStr">
+        <is>
+          <t>12211</t>
+        </is>
+      </c>
       <c r="BX14"/>
       <c r="BY14"/>
       <c r="BZ14"/>
       <c r="CA14"/>
       <c r="CB14"/>
-      <c r="CC14"/>
-      <c r="CD14"/>
-      <c r="CE14"/>
-      <c r="CF14"/>
-      <c r="CG14"/>
-      <c r="CH14"/>
-      <c r="CI14"/>
-      <c r="CJ14"/>
-      <c r="CK14"/>
-      <c r="CL14"/>
+      <c r="CC14" s="3" t="inlineStr">
+        <is>
+          <t>MEMBER_ID</t>
+        </is>
+      </c>
+      <c r="CD14" s="3" t="inlineStr">
+        <is>
+          <t>ABC123456789</t>
+        </is>
+      </c>
+      <c r="CE14" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CF14" s="3" t="inlineStr">
+        <is>
+          <t>JOHN</t>
+        </is>
+      </c>
+      <c r="CG14" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="CH14" s="3" t="inlineStr">
+        <is>
+          <t>MEMBER_ID</t>
+        </is>
+      </c>
+      <c r="CI14" s="3" t="inlineStr">
+        <is>
+          <t>ABC123456789</t>
+        </is>
+      </c>
+      <c r="CJ14" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CK14" s="3" t="inlineStr">
+        <is>
+          <t>JOHN</t>
+        </is>
+      </c>
+      <c r="CL14" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="CM14"/>
       <c r="CN14"/>
       <c r="CO14"/>
@@ -5940,16 +5920,34 @@
       <c r="DN14"/>
       <c r="DO14"/>
       <c r="DP14"/>
-      <c r="DQ14"/>
-      <c r="DR14"/>
+      <c r="DQ14" s="4" t="n">
+        <v>43466.0</v>
+      </c>
+      <c r="DR14" s="4" t="n">
+        <v>43466.0</v>
+      </c>
       <c r="DS14"/>
       <c r="DT14"/>
       <c r="DU14"/>
-      <c r="DV14"/>
-      <c r="DW14"/>
-      <c r="DX14"/>
-      <c r="DY14"/>
-      <c r="DZ14"/>
+      <c r="DV14" s="4" t="n">
+        <v>43505.0</v>
+      </c>
+      <c r="DW14" s="1" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="DX14" s="3" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="DY14" s="3" t="inlineStr">
+        <is>
+          <t>COVERAGE_AMOUNT</t>
+        </is>
+      </c>
+      <c r="DZ14" s="1" t="n">
+        <v>150.0</v>
+      </c>
       <c r="EA14"/>
       <c r="EB14"/>
       <c r="EC14"/>
@@ -5961,12 +5959,12 @@
       <c r="EI14"/>
       <c r="EJ14" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="EK14" s="3" t="inlineStr">
         <is>
-          <t>D0220</t>
+          <t>99213</t>
         </is>
       </c>
       <c r="EL14"/>
@@ -5975,10 +5973,10 @@
       <c r="EO14"/>
       <c r="EP14"/>
       <c r="EQ14" s="1" t="n">
-        <v>25.0</v>
+        <v>150.0</v>
       </c>
       <c r="ER14" s="1" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="ES14" t="n">
         <v>1.0</v>
@@ -5991,26 +5989,26 @@
       <c r="EY14"/>
       <c r="EZ14"/>
       <c r="FA14" s="4" t="n">
-        <v>43548.0</v>
+        <v>43466.0</v>
       </c>
       <c r="FB14" s="4" t="n">
-        <v>43548.0</v>
+        <v>43466.0</v>
       </c>
       <c r="FC14" s="1" t="n">
-        <v>11.0</v>
+        <v>150.0</v>
       </c>
       <c r="FD14" s="3" t="inlineStr">
         <is>
-          <t>CONTRACTUAL</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="FE14" s="3" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>252</t>
         </is>
       </c>
       <c r="FF14" s="1" t="n">
-        <v>11.0</v>
+        <v>150.0</v>
       </c>
       <c r="FG14"/>
       <c r="FH14"/>
@@ -6036,26 +6034,22 @@
       <c r="GB14"/>
       <c r="GC14"/>
       <c r="GD14"/>
-      <c r="GE14"/>
-      <c r="GF14"/>
+      <c r="GE14" s="3" t="inlineStr">
+        <is>
+          <t>CMS_NPI</t>
+        </is>
+      </c>
+      <c r="GF14" s="3" t="inlineStr">
+        <is>
+          <t>99123</t>
+        </is>
+      </c>
       <c r="GG14"/>
       <c r="GH14"/>
-      <c r="GI14" s="1" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="GJ14" s="3" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="GK14" s="3" t="inlineStr">
-        <is>
-          <t>ALLOWED_ACTUAL</t>
-        </is>
-      </c>
-      <c r="GL14" s="1" t="n">
-        <v>14.0</v>
-      </c>
+      <c r="GI14"/>
+      <c r="GJ14"/>
+      <c r="GK14"/>
+      <c r="GL14"/>
       <c r="GM14"/>
       <c r="GN14"/>
       <c r="GO14"/>
@@ -6065,7 +6059,11 @@
       <c r="GS14"/>
       <c r="GT14"/>
       <c r="GU14"/>
-      <c r="GV14"/>
+      <c r="GV14" s="3" t="inlineStr">
+        <is>
+          <t>M143</t>
+        </is>
+      </c>
       <c r="GW14"/>
       <c r="GX14"/>
       <c r="GY14"/>
@@ -6074,52 +6072,154 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce14f4</t>
-        </is>
-      </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+          <t>68ec56cace2f64368d17791e</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>835-all-fields.dat</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>35681</t>
+        </is>
+      </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
           <t>7722337</t>
         </is>
       </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>PRIMARY</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>226.0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
           <t>119932404007801</t>
         </is>
       </c>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="inlineStr">
+        <is>
+          <t>ACH</t>
+        </is>
+      </c>
+      <c r="T15" s="3" t="inlineStr">
+        <is>
+          <t>2200008888</t>
+        </is>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>45756.0</v>
+      </c>
+      <c r="V15" s="3" t="inlineStr">
+        <is>
+          <t>882509401093167</t>
+        </is>
+      </c>
+      <c r="W15" s="3" t="inlineStr">
+        <is>
+          <t>106609999</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>43538.0</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>32405.0</v>
+      </c>
+      <c r="Z15" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="AA15" s="3" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD15" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="AE15" s="3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AF15" s="1" t="n">
+        <v>30000.0</v>
+      </c>
       <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
+      <c r="AH15" s="3" t="inlineStr">
+        <is>
+          <t>PATIENT_RESPONSIBILITY</t>
+        </is>
+      </c>
+      <c r="AI15" s="3" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>259.0</v>
+      </c>
       <c r="AK15"/>
       <c r="AL15"/>
       <c r="AM15"/>
@@ -6129,131 +6229,405 @@
       <c r="AQ15"/>
       <c r="AR15"/>
       <c r="AS15"/>
-      <c r="AT15"/>
-      <c r="AU15"/>
-      <c r="AV15"/>
-      <c r="AW15"/>
+      <c r="AT15" s="3" t="inlineStr">
+        <is>
+          <t>PAYOR_ID</t>
+        </is>
+      </c>
+      <c r="AU15" s="3" t="inlineStr">
+        <is>
+          <t>0101</t>
+        </is>
+      </c>
+      <c r="AV15" s="3" t="inlineStr">
+        <is>
+          <t>DELTA DENTAL OF ABC</t>
+        </is>
+      </c>
+      <c r="AW15" s="3" t="inlineStr">
+        <is>
+          <t>225 MAIN STREET</t>
+        </is>
+      </c>
       <c r="AX15"/>
-      <c r="AY15"/>
-      <c r="AZ15"/>
-      <c r="BA15"/>
-      <c r="BB15"/>
-      <c r="BC15"/>
-      <c r="BD15"/>
-      <c r="BE15"/>
-      <c r="BF15"/>
+      <c r="AY15" s="3" t="inlineStr">
+        <is>
+          <t>CENTERVILLE</t>
+        </is>
+      </c>
+      <c r="AZ15" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="BA15" s="3" t="inlineStr">
+        <is>
+          <t>17111</t>
+        </is>
+      </c>
+      <c r="BB15" s="3" t="inlineStr">
+        <is>
+          <t>JANE DOE</t>
+        </is>
+      </c>
+      <c r="BC15" s="3" t="inlineStr">
+        <is>
+          <t>PHONE</t>
+        </is>
+      </c>
+      <c r="BD15" s="3" t="inlineStr">
+        <is>
+          <t>9005555555</t>
+        </is>
+      </c>
+      <c r="BE15" s="3" t="inlineStr">
+        <is>
+          <t>EXTENSION</t>
+        </is>
+      </c>
+      <c r="BF15" s="3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
       <c r="BG15"/>
-      <c r="BH15"/>
-      <c r="BI15"/>
+      <c r="BH15" s="3" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="BI15" s="3" t="inlineStr">
+        <is>
+          <t>myplan.com/policies</t>
+        </is>
+      </c>
       <c r="BJ15"/>
       <c r="BK15"/>
-      <c r="BL15"/>
-      <c r="BM15"/>
-      <c r="BN15"/>
-      <c r="BO15"/>
-      <c r="BP15"/>
-      <c r="BQ15"/>
-      <c r="BR15"/>
-      <c r="BS15"/>
+      <c r="BL15" s="3" t="inlineStr">
+        <is>
+          <t>PAYER_IDENTIFICATION_NUMBER</t>
+        </is>
+      </c>
+      <c r="BM15" s="3" t="inlineStr">
+        <is>
+          <t>0101</t>
+        </is>
+      </c>
+      <c r="BN15" s="3" t="inlineStr">
+        <is>
+          <t>HEALTH_INDUSTRY_NUMBER</t>
+        </is>
+      </c>
+      <c r="BO15" s="3" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="BP15" s="3" t="inlineStr">
+        <is>
+          <t>EIN</t>
+        </is>
+      </c>
+      <c r="BQ15" s="3" t="inlineStr">
+        <is>
+          <t>999994703</t>
+        </is>
+      </c>
+      <c r="BR15" s="3" t="inlineStr">
+        <is>
+          <t>BAN DDS LLC</t>
+        </is>
+      </c>
+      <c r="BS15" s="3" t="inlineStr">
+        <is>
+          <t>225 MAIN STREET</t>
+        </is>
+      </c>
       <c r="BT15"/>
-      <c r="BU15"/>
-      <c r="BV15"/>
-      <c r="BW15"/>
+      <c r="BU15" s="3" t="inlineStr">
+        <is>
+          <t>CENTERVILLE</t>
+        </is>
+      </c>
+      <c r="BV15" s="3" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="BW15" s="3" t="inlineStr">
+        <is>
+          <t>17111</t>
+        </is>
+      </c>
       <c r="BX15"/>
-      <c r="BY15"/>
-      <c r="BZ15"/>
+      <c r="BY15" s="3" t="inlineStr">
+        <is>
+          <t>PAYEE_IDENTIFICATION_NUMBER</t>
+        </is>
+      </c>
+      <c r="BZ15" s="3" t="inlineStr">
+        <is>
+          <t>0505</t>
+        </is>
+      </c>
       <c r="CA15"/>
       <c r="CB15"/>
       <c r="CC15"/>
       <c r="CD15"/>
-      <c r="CE15"/>
-      <c r="CF15"/>
+      <c r="CE15" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CF15" s="3" t="inlineStr">
+        <is>
+          <t>SALLY</t>
+        </is>
+      </c>
       <c r="CG15"/>
-      <c r="CH15"/>
-      <c r="CI15"/>
-      <c r="CJ15"/>
-      <c r="CK15"/>
+      <c r="CH15" s="3" t="inlineStr">
+        <is>
+          <t>MEMBER_ID</t>
+        </is>
+      </c>
+      <c r="CI15" s="3" t="inlineStr">
+        <is>
+          <t>SJD11111</t>
+        </is>
+      </c>
+      <c r="CJ15" s="3" t="inlineStr">
+        <is>
+          <t>DOE</t>
+        </is>
+      </c>
+      <c r="CK15" s="3" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
       <c r="CL15"/>
-      <c r="CM15"/>
-      <c r="CN15"/>
-      <c r="CO15"/>
+      <c r="CM15" s="3" t="inlineStr">
+        <is>
+          <t>INSURED_CHANGED_ID</t>
+        </is>
+      </c>
+      <c r="CN15" s="3" t="inlineStr">
+        <is>
+          <t>SJD999</t>
+        </is>
+      </c>
+      <c r="CO15" s="3" t="inlineStr">
+        <is>
+          <t>Due</t>
+        </is>
+      </c>
       <c r="CP15"/>
       <c r="CQ15"/>
-      <c r="CR15"/>
-      <c r="CS15"/>
-      <c r="CT15"/>
-      <c r="CU15"/>
+      <c r="CR15" s="3" t="inlineStr">
+        <is>
+          <t>NPI</t>
+        </is>
+      </c>
+      <c r="CS15" s="3" t="inlineStr">
+        <is>
+          <t>1811901945</t>
+        </is>
+      </c>
+      <c r="CT15" s="3" t="inlineStr">
+        <is>
+          <t>BAN</t>
+        </is>
+      </c>
+      <c r="CU15" s="3" t="inlineStr">
+        <is>
+          <t>ERIN</t>
+        </is>
+      </c>
       <c r="CV15"/>
       <c r="CW15"/>
-      <c r="CX15"/>
-      <c r="CY15"/>
-      <c r="CZ15"/>
-      <c r="DA15"/>
-      <c r="DB15"/>
-      <c r="DC15"/>
-      <c r="DD15"/>
-      <c r="DE15"/>
-      <c r="DF15"/>
-      <c r="DG15"/>
+      <c r="CX15" s="3" t="inlineStr">
+        <is>
+          <t>MEDICARE_PROVIDER_NUMBER</t>
+        </is>
+      </c>
+      <c r="CY15" s="3" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="CZ15" s="3" t="inlineStr">
+        <is>
+          <t>PROVIDER_UPIN_NUMBER</t>
+        </is>
+      </c>
+      <c r="DA15" s="3" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="DB15" s="3" t="inlineStr">
+        <is>
+          <t>CMS_PLAN_ID</t>
+        </is>
+      </c>
+      <c r="DC15" s="3" t="inlineStr">
+        <is>
+          <t>9876</t>
+        </is>
+      </c>
+      <c r="DD15" s="3" t="inlineStr">
+        <is>
+          <t>ACME INSURANCE</t>
+        </is>
+      </c>
+      <c r="DE15" s="3" t="inlineStr">
+        <is>
+          <t>CMS_PLAN_ID</t>
+        </is>
+      </c>
+      <c r="DF15" s="3" t="inlineStr">
+        <is>
+          <t>8765</t>
+        </is>
+      </c>
+      <c r="DG15" s="3" t="inlineStr">
+        <is>
+          <t>ACME INSURANCE</t>
+        </is>
+      </c>
       <c r="DH15"/>
       <c r="DI15"/>
-      <c r="DJ15"/>
-      <c r="DK15"/>
+      <c r="DJ15" s="3" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="DK15" s="3" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
       <c r="DL15"/>
       <c r="DM15"/>
       <c r="DN15"/>
       <c r="DO15"/>
       <c r="DP15"/>
-      <c r="DQ15"/>
-      <c r="DR15"/>
-      <c r="DS15"/>
-      <c r="DT15"/>
-      <c r="DU15"/>
-      <c r="DV15"/>
-      <c r="DW15"/>
-      <c r="DX15"/>
-      <c r="DY15"/>
-      <c r="DZ15"/>
-      <c r="EA15"/>
-      <c r="EB15"/>
-      <c r="EC15"/>
-      <c r="ED15"/>
-      <c r="EE15"/>
-      <c r="EF15"/>
+      <c r="DQ15" s="4" t="n">
+        <v>43548.0</v>
+      </c>
+      <c r="DR15" s="4" t="n">
+        <v>43549.0</v>
+      </c>
+      <c r="DS15" s="4" t="n">
+        <v>44819.0</v>
+      </c>
+      <c r="DT15" s="4" t="n">
+        <v>44820.0</v>
+      </c>
+      <c r="DU15" s="4" t="n">
+        <v>44835.0</v>
+      </c>
+      <c r="DV15" s="4" t="n">
+        <v>44889.0</v>
+      </c>
+      <c r="DW15" s="1" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="DX15" s="3" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="DY15" s="3" t="inlineStr">
+        <is>
+          <t>COVERAGE_AMOUNT</t>
+        </is>
+      </c>
+      <c r="DZ15" s="1" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="EA15" s="3" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="EB15" s="3" t="inlineStr">
+        <is>
+          <t>DISCOUNT_AMOUNT</t>
+        </is>
+      </c>
+      <c r="EC15" s="1" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="ED15" s="3" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="EE15" s="3" t="inlineStr">
+        <is>
+          <t>COVERED</t>
+        </is>
+      </c>
+      <c r="EF15" t="n">
+        <v>4.0</v>
+      </c>
       <c r="EG15"/>
       <c r="EH15"/>
       <c r="EI15"/>
       <c r="EJ15" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>A123</t>
         </is>
       </c>
       <c r="EK15" s="3" t="inlineStr">
         <is>
-          <t>D0230</t>
-        </is>
-      </c>
-      <c r="EL15"/>
-      <c r="EM15"/>
+          <t>D0120</t>
+        </is>
+      </c>
+      <c r="EL15" s="3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="EM15" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
       <c r="EN15"/>
-      <c r="EO15"/>
+      <c r="EO15" s="3" t="inlineStr">
+        <is>
+          <t>0022</t>
+        </is>
+      </c>
       <c r="EP15"/>
       <c r="EQ15" s="1" t="n">
-        <v>22.0</v>
+        <v>46.0</v>
       </c>
       <c r="ER15" s="1" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="ES15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="ET15"/>
-      <c r="EU15"/>
+        <v>3.1</v>
+      </c>
+      <c r="ET15" s="3" t="inlineStr">
+        <is>
+          <t>D0140</t>
+        </is>
+      </c>
+      <c r="EU15" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="EV15"/>
       <c r="EW15"/>
       <c r="EX15"/>
       <c r="EY15"/>
-      <c r="EZ15"/>
+      <c r="EZ15" t="n">
+        <v>3.5</v>
+      </c>
       <c r="FA15" s="4" t="n">
         <v>43548.0</v>
       </c>
@@ -6261,7 +6635,7 @@
         <v>43548.0</v>
       </c>
       <c r="FC15" s="1" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="FD15" s="3" t="inlineStr">
         <is>
@@ -6274,7 +6648,7 @@
         </is>
       </c>
       <c r="FF15" s="1" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="FG15"/>
       <c r="FH15"/>
@@ -6293,19 +6667,63 @@
       <c r="FU15"/>
       <c r="FV15"/>
       <c r="FW15"/>
-      <c r="FX15"/>
-      <c r="FY15"/>
-      <c r="FZ15"/>
-      <c r="GA15"/>
-      <c r="GB15"/>
-      <c r="GC15"/>
-      <c r="GD15"/>
-      <c r="GE15"/>
-      <c r="GF15"/>
-      <c r="GG15"/>
-      <c r="GH15"/>
+      <c r="FX15" s="3" t="inlineStr">
+        <is>
+          <t>RATE_CODE_NUMBER</t>
+        </is>
+      </c>
+      <c r="FY15" s="3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="FZ15" s="3" t="inlineStr">
+        <is>
+          <t>APG_NUMBER</t>
+        </is>
+      </c>
+      <c r="GA15" s="3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="GB15" s="3" t="inlineStr">
+        <is>
+          <t>AMBULATORY_PAYMENT</t>
+        </is>
+      </c>
+      <c r="GC15" s="3" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="GD15" s="3" t="inlineStr">
+        <is>
+          <t>1234"5</t>
+        </is>
+      </c>
+      <c r="GE15" s="3" t="inlineStr">
+        <is>
+          <t>CMS_NPI</t>
+        </is>
+      </c>
+      <c r="GF15" s="3" t="inlineStr">
+        <is>
+          <t>P123</t>
+        </is>
+      </c>
+      <c r="GG15" s="3" t="inlineStr">
+        <is>
+          <t>MEDICARE_PROVIDER_NUMBER</t>
+        </is>
+      </c>
+      <c r="GH15" s="3" t="inlineStr">
+        <is>
+          <t>P234</t>
+        </is>
+      </c>
       <c r="GI15" s="1" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="GJ15" s="3" t="inlineStr">
         <is>
@@ -6318,19 +6736,37 @@
         </is>
       </c>
       <c r="GL15" s="1" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="GM15"/>
       <c r="GN15"/>
       <c r="GO15"/>
-      <c r="GP15"/>
-      <c r="GQ15"/>
-      <c r="GR15"/>
+      <c r="GP15" s="3" t="inlineStr">
+        <is>
+          <t>ZL</t>
+        </is>
+      </c>
+      <c r="GQ15" s="3" t="inlineStr">
+        <is>
+          <t>MEDICARE_MEDICAID_CAT_2</t>
+        </is>
+      </c>
+      <c r="GR15" t="n">
+        <v>3.75</v>
+      </c>
       <c r="GS15"/>
       <c r="GT15"/>
       <c r="GU15"/>
-      <c r="GV15"/>
-      <c r="GW15"/>
+      <c r="GV15" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="GW15" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="GX15"/>
       <c r="GY15"/>
       <c r="GZ15"/>
@@ -6338,7 +6774,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce14f4</t>
+          <t>68ec56cace2f64368d17791e</t>
         </is>
       </c>
       <c r="B16"/>
@@ -6489,12 +6925,12 @@
       <c r="EI16"/>
       <c r="EJ16" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="EK16" s="3" t="inlineStr">
         <is>
-          <t>D0274</t>
+          <t>D0220</t>
         </is>
       </c>
       <c r="EL16"/>
@@ -6503,10 +6939,10 @@
       <c r="EO16"/>
       <c r="EP16"/>
       <c r="EQ16" s="1" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="ER16" s="1" t="n">
-        <v>34.0</v>
+        <v>14.0</v>
       </c>
       <c r="ES16" t="n">
         <v>1.0</v>
@@ -6525,7 +6961,7 @@
         <v>43548.0</v>
       </c>
       <c r="FC16" s="1" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="FD16" s="3" t="inlineStr">
         <is>
@@ -6538,7 +6974,7 @@
         </is>
       </c>
       <c r="FF16" s="1" t="n">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="FG16"/>
       <c r="FH16"/>
@@ -6569,7 +7005,7 @@
       <c r="GG16"/>
       <c r="GH16"/>
       <c r="GI16" s="1" t="n">
-        <v>34.0</v>
+        <v>14.0</v>
       </c>
       <c r="GJ16" s="3" t="inlineStr">
         <is>
@@ -6582,7 +7018,7 @@
         </is>
       </c>
       <c r="GL16" s="1" t="n">
-        <v>34.0</v>
+        <v>14.0</v>
       </c>
       <c r="GM16"/>
       <c r="GN16"/>
@@ -6602,7 +7038,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce14f4</t>
+          <t>68ec56cace2f64368d17791e</t>
         </is>
       </c>
       <c r="B17"/>
@@ -6753,24 +7189,24 @@
       <c r="EI17"/>
       <c r="EJ17" s="3" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="EK17"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="EK17" s="3" t="inlineStr">
+        <is>
+          <t>D0230</t>
+        </is>
+      </c>
       <c r="EL17"/>
       <c r="EM17"/>
       <c r="EN17"/>
-      <c r="EO17" s="3" t="inlineStr">
-        <is>
-          <t>0022</t>
-        </is>
-      </c>
+      <c r="EO17"/>
       <c r="EP17"/>
       <c r="EQ17" s="1" t="n">
-        <v>99.0</v>
+        <v>22.0</v>
       </c>
       <c r="ER17" s="1" t="n">
-        <v>59.0</v>
+        <v>10.0</v>
       </c>
       <c r="ES17" t="n">
         <v>1.0</v>
@@ -6779,15 +7215,9 @@
       <c r="EU17"/>
       <c r="EV17"/>
       <c r="EW17"/>
-      <c r="EX17" s="3" t="inlineStr">
-        <is>
-          <t>0023</t>
-        </is>
-      </c>
+      <c r="EX17"/>
       <c r="EY17"/>
-      <c r="EZ17" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="EZ17"/>
       <c r="FA17" s="4" t="n">
         <v>43548.0</v>
       </c>
@@ -6795,11 +7225,21 @@
         <v>43548.0</v>
       </c>
       <c r="FC17" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="FD17"/>
-      <c r="FE17"/>
-      <c r="FF17"/>
+        <v>12.0</v>
+      </c>
+      <c r="FD17" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="FE17" s="3" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="FF17" s="1" t="n">
+        <v>12.0</v>
+      </c>
       <c r="FG17"/>
       <c r="FH17"/>
       <c r="FI17"/>
@@ -6828,10 +7268,22 @@
       <c r="GF17"/>
       <c r="GG17"/>
       <c r="GH17"/>
-      <c r="GI17"/>
-      <c r="GJ17"/>
-      <c r="GK17"/>
-      <c r="GL17"/>
+      <c r="GI17" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="GJ17" s="3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="GK17" s="3" t="inlineStr">
+        <is>
+          <t>ALLOWED_ACTUAL</t>
+        </is>
+      </c>
+      <c r="GL17" s="1" t="n">
+        <v>10.0</v>
+      </c>
       <c r="GM17"/>
       <c r="GN17"/>
       <c r="GO17"/>
@@ -6850,7 +7302,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce14f4</t>
+          <t>68ec56cace2f64368d17791e</t>
         </is>
       </c>
       <c r="B18"/>
@@ -7001,12 +7453,12 @@
       <c r="EI18"/>
       <c r="EJ18" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="EK18" s="3" t="inlineStr">
         <is>
-          <t>D1110</t>
+          <t>D0274</t>
         </is>
       </c>
       <c r="EL18"/>
@@ -7015,10 +7467,10 @@
       <c r="EO18"/>
       <c r="EP18"/>
       <c r="EQ18" s="1" t="n">
-        <v>73.0</v>
+        <v>60.0</v>
       </c>
       <c r="ER18" s="1" t="n">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="ES18" t="n">
         <v>1.0</v>
@@ -7034,10 +7486,10 @@
         <v>43548.0</v>
       </c>
       <c r="FB18" s="4" t="n">
-        <v>43549.0</v>
+        <v>43548.0</v>
       </c>
       <c r="FC18" s="1" t="n">
-        <v>76.0</v>
+        <v>26.0</v>
       </c>
       <c r="FD18" s="3" t="inlineStr">
         <is>
@@ -7050,36 +7502,16 @@
         </is>
       </c>
       <c r="FF18" s="1" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="FG18"/>
-      <c r="FH18" s="3" t="inlineStr">
-        <is>
-          <t>CONTRACTUAL</t>
-        </is>
-      </c>
-      <c r="FI18" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="FJ18" s="1" t="n">
-        <v>25.0</v>
-      </c>
+      <c r="FH18"/>
+      <c r="FI18"/>
+      <c r="FJ18"/>
       <c r="FK18"/>
-      <c r="FL18" s="3" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="FM18" s="3" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="FN18" s="1" t="n">
-        <v>27.0</v>
-      </c>
+      <c r="FL18"/>
+      <c r="FM18"/>
+      <c r="FN18"/>
       <c r="FO18"/>
       <c r="FP18"/>
       <c r="FQ18"/>
@@ -7101,7 +7533,7 @@
       <c r="GG18"/>
       <c r="GH18"/>
       <c r="GI18" s="1" t="n">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="GJ18" s="3" t="inlineStr">
         <is>
@@ -7114,21 +7546,11 @@
         </is>
       </c>
       <c r="GL18" s="1" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="GM18" s="3" t="inlineStr">
-        <is>
-          <t>KH</t>
-        </is>
-      </c>
-      <c r="GN18" s="3" t="inlineStr">
-        <is>
-          <t>DEDUCTION</t>
-        </is>
-      </c>
-      <c r="GO18" s="1" t="n">
-        <v>50.0</v>
-      </c>
+        <v>34.0</v>
+      </c>
+      <c r="GM18"/>
+      <c r="GN18"/>
+      <c r="GO18"/>
       <c r="GP18"/>
       <c r="GQ18"/>
       <c r="GR18"/>
@@ -7144,7 +7566,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>685d6a78b5939c4ba8ce14f4</t>
+          <t>68ec56cace2f64368d17791e</t>
         </is>
       </c>
       <c r="B19"/>
@@ -7295,40 +7717,40 @@
       <c r="EI19"/>
       <c r="EJ19" s="3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="EK19"/>
       <c r="EL19"/>
       <c r="EM19"/>
       <c r="EN19"/>
-      <c r="EO19"/>
-      <c r="EP19" s="3" t="inlineStr">
-        <is>
-          <t>00002143481</t>
-        </is>
-      </c>
+      <c r="EO19" s="3" t="inlineStr">
+        <is>
+          <t>0022</t>
+        </is>
+      </c>
+      <c r="EP19"/>
       <c r="EQ19" s="1" t="n">
-        <v>60.0</v>
+        <v>99.0</v>
       </c>
       <c r="ER19" s="1" t="n">
         <v>59.0</v>
       </c>
       <c r="ES19" t="n">
-        <v>10.5</v>
+        <v>1.0</v>
       </c>
       <c r="ET19"/>
       <c r="EU19"/>
       <c r="EV19"/>
       <c r="EW19"/>
-      <c r="EX19"/>
-      <c r="EY19" s="3" t="inlineStr">
-        <is>
-          <t>00002143482</t>
-        </is>
-      </c>
+      <c r="EX19" s="3" t="inlineStr">
+        <is>
+          <t>0023</t>
+        </is>
+      </c>
+      <c r="EY19"/>
       <c r="EZ19" t="n">
-        <v>9.2</v>
+        <v>2.0</v>
       </c>
       <c r="FA19" s="4" t="n">
         <v>43548.0</v>
@@ -7389,6 +7811,548 @@
       <c r="GY19"/>
       <c r="GZ19"/>
     </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>68ec56cace2f64368d17791e</t>
+        </is>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>7722337</t>
+        </is>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>119932404007801</t>
+        </is>
+      </c>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20"/>
+      <c r="CT20"/>
+      <c r="CU20"/>
+      <c r="CV20"/>
+      <c r="CW20"/>
+      <c r="CX20"/>
+      <c r="CY20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DB20"/>
+      <c r="DC20"/>
+      <c r="DD20"/>
+      <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20"/>
+      <c r="DH20"/>
+      <c r="DI20"/>
+      <c r="DJ20"/>
+      <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+      <c r="DP20"/>
+      <c r="DQ20"/>
+      <c r="DR20"/>
+      <c r="DS20"/>
+      <c r="DT20"/>
+      <c r="DU20"/>
+      <c r="DV20"/>
+      <c r="DW20"/>
+      <c r="DX20"/>
+      <c r="DY20"/>
+      <c r="DZ20"/>
+      <c r="EA20"/>
+      <c r="EB20"/>
+      <c r="EC20"/>
+      <c r="ED20"/>
+      <c r="EE20"/>
+      <c r="EF20"/>
+      <c r="EG20"/>
+      <c r="EH20"/>
+      <c r="EI20"/>
+      <c r="EJ20" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="EK20" s="3" t="inlineStr">
+        <is>
+          <t>D1110</t>
+        </is>
+      </c>
+      <c r="EL20"/>
+      <c r="EM20"/>
+      <c r="EN20"/>
+      <c r="EO20"/>
+      <c r="EP20"/>
+      <c r="EQ20" s="1" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="ER20" s="1" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="ET20"/>
+      <c r="EU20"/>
+      <c r="EV20"/>
+      <c r="EW20"/>
+      <c r="EX20"/>
+      <c r="EY20"/>
+      <c r="EZ20"/>
+      <c r="FA20" s="4" t="n">
+        <v>43548.0</v>
+      </c>
+      <c r="FB20" s="4" t="n">
+        <v>43549.0</v>
+      </c>
+      <c r="FC20" s="1" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="FD20" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="FE20" s="3" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="FF20" s="1" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="FG20"/>
+      <c r="FH20" s="3" t="inlineStr">
+        <is>
+          <t>CONTRACTUAL</t>
+        </is>
+      </c>
+      <c r="FI20" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="FJ20" s="1" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="FK20"/>
+      <c r="FL20" s="3" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="FM20" s="3" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="FN20" s="1" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="FO20"/>
+      <c r="FP20"/>
+      <c r="FQ20"/>
+      <c r="FR20"/>
+      <c r="FS20"/>
+      <c r="FT20"/>
+      <c r="FU20"/>
+      <c r="FV20"/>
+      <c r="FW20"/>
+      <c r="FX20"/>
+      <c r="FY20"/>
+      <c r="FZ20"/>
+      <c r="GA20"/>
+      <c r="GB20"/>
+      <c r="GC20"/>
+      <c r="GD20"/>
+      <c r="GE20"/>
+      <c r="GF20"/>
+      <c r="GG20"/>
+      <c r="GH20"/>
+      <c r="GI20" s="1" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="GJ20" s="3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="GK20" s="3" t="inlineStr">
+        <is>
+          <t>ALLOWED_ACTUAL</t>
+        </is>
+      </c>
+      <c r="GL20" s="1" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="GM20" s="3" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="GN20" s="3" t="inlineStr">
+        <is>
+          <t>DEDUCTION</t>
+        </is>
+      </c>
+      <c r="GO20" s="1" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="GP20"/>
+      <c r="GQ20"/>
+      <c r="GR20"/>
+      <c r="GS20"/>
+      <c r="GT20"/>
+      <c r="GU20"/>
+      <c r="GV20"/>
+      <c r="GW20"/>
+      <c r="GX20"/>
+      <c r="GY20"/>
+      <c r="GZ20"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>68ec56cace2f64368d17791e</t>
+        </is>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>7722337</t>
+        </is>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>119932404007801</t>
+        </is>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21"/>
+      <c r="CF21"/>
+      <c r="CG21"/>
+      <c r="CH21"/>
+      <c r="CI21"/>
+      <c r="CJ21"/>
+      <c r="CK21"/>
+      <c r="CL21"/>
+      <c r="CM21"/>
+      <c r="CN21"/>
+      <c r="CO21"/>
+      <c r="CP21"/>
+      <c r="CQ21"/>
+      <c r="CR21"/>
+      <c r="CS21"/>
+      <c r="CT21"/>
+      <c r="CU21"/>
+      <c r="CV21"/>
+      <c r="CW21"/>
+      <c r="CX21"/>
+      <c r="CY21"/>
+      <c r="CZ21"/>
+      <c r="DA21"/>
+      <c r="DB21"/>
+      <c r="DC21"/>
+      <c r="DD21"/>
+      <c r="DE21"/>
+      <c r="DF21"/>
+      <c r="DG21"/>
+      <c r="DH21"/>
+      <c r="DI21"/>
+      <c r="DJ21"/>
+      <c r="DK21"/>
+      <c r="DL21"/>
+      <c r="DM21"/>
+      <c r="DN21"/>
+      <c r="DO21"/>
+      <c r="DP21"/>
+      <c r="DQ21"/>
+      <c r="DR21"/>
+      <c r="DS21"/>
+      <c r="DT21"/>
+      <c r="DU21"/>
+      <c r="DV21"/>
+      <c r="DW21"/>
+      <c r="DX21"/>
+      <c r="DY21"/>
+      <c r="DZ21"/>
+      <c r="EA21"/>
+      <c r="EB21"/>
+      <c r="EC21"/>
+      <c r="ED21"/>
+      <c r="EE21"/>
+      <c r="EF21"/>
+      <c r="EG21"/>
+      <c r="EH21"/>
+      <c r="EI21"/>
+      <c r="EJ21" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="EK21"/>
+      <c r="EL21"/>
+      <c r="EM21"/>
+      <c r="EN21"/>
+      <c r="EO21"/>
+      <c r="EP21" s="3" t="inlineStr">
+        <is>
+          <t>00002143481</t>
+        </is>
+      </c>
+      <c r="EQ21" s="1" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="ER21" s="1" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="ET21"/>
+      <c r="EU21"/>
+      <c r="EV21"/>
+      <c r="EW21"/>
+      <c r="EX21"/>
+      <c r="EY21" s="3" t="inlineStr">
+        <is>
+          <t>00002143482</t>
+        </is>
+      </c>
+      <c r="EZ21" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="FA21" s="4" t="n">
+        <v>43548.0</v>
+      </c>
+      <c r="FB21" s="4" t="n">
+        <v>43548.0</v>
+      </c>
+      <c r="FC21" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="FD21"/>
+      <c r="FE21"/>
+      <c r="FF21"/>
+      <c r="FG21"/>
+      <c r="FH21"/>
+      <c r="FI21"/>
+      <c r="FJ21"/>
+      <c r="FK21"/>
+      <c r="FL21"/>
+      <c r="FM21"/>
+      <c r="FN21"/>
+      <c r="FO21"/>
+      <c r="FP21"/>
+      <c r="FQ21"/>
+      <c r="FR21"/>
+      <c r="FS21"/>
+      <c r="FT21"/>
+      <c r="FU21"/>
+      <c r="FV21"/>
+      <c r="FW21"/>
+      <c r="FX21"/>
+      <c r="FY21"/>
+      <c r="FZ21"/>
+      <c r="GA21"/>
+      <c r="GB21"/>
+      <c r="GC21"/>
+      <c r="GD21"/>
+      <c r="GE21"/>
+      <c r="GF21"/>
+      <c r="GG21"/>
+      <c r="GH21"/>
+      <c r="GI21"/>
+      <c r="GJ21"/>
+      <c r="GK21"/>
+      <c r="GL21"/>
+      <c r="GM21"/>
+      <c r="GN21"/>
+      <c r="GO21"/>
+      <c r="GP21"/>
+      <c r="GQ21"/>
+      <c r="GR21"/>
+      <c r="GS21"/>
+      <c r="GT21"/>
+      <c r="GU21"/>
+      <c r="GV21"/>
+      <c r="GW21"/>
+      <c r="GX21"/>
+      <c r="GY21"/>
+      <c r="GZ21"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/converted_files/835/835-all-files.xlsx
+++ b/converted_files/835/835-all-files.xlsx
@@ -1110,7 +1110,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d1777d7</t>
+          <t>69014026ca84f491f7f20b5c</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d1777ff</t>
+          <t>69014026ca84f491f7f20b8e</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -2034,7 +2034,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d1777ff</t>
+          <t>69014026ca84f491f7f20b8e</t>
         </is>
       </c>
       <c r="B4"/>
@@ -2286,7 +2286,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d1777ff</t>
+          <t>69014026ca84f491f7f20b8e</t>
         </is>
       </c>
       <c r="B5"/>
@@ -2538,7 +2538,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d177822</t>
+          <t>69014026ca84f491f7f20bbb</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d177871</t>
+          <t>69014026ca84f491f7f20c14</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -3656,7 +3656,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d177871</t>
+          <t>69014026ca84f491f7f20c14</t>
         </is>
       </c>
       <c r="B8"/>
@@ -3920,7 +3920,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d177871</t>
+          <t>69014026ca84f491f7f20c14</t>
         </is>
       </c>
       <c r="B9"/>
@@ -4184,7 +4184,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d177871</t>
+          <t>69014026ca84f491f7f20c14</t>
         </is>
       </c>
       <c r="B10"/>
@@ -4448,7 +4448,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d177871</t>
+          <t>69014026ca84f491f7f20c14</t>
         </is>
       </c>
       <c r="B11"/>
@@ -4742,7 +4742,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d177896</t>
+          <t>69014026ca84f491f7f20c46</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d177897</t>
+          <t>69014026ca84f491f7f20c47</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -5610,7 +5610,7 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d1778bb</t>
+          <t>69014026ca84f491f7f20c75</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -6072,7 +6072,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d17791e</t>
+          <t>69014026ca84f491f7f20ce2</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -6774,7 +6774,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d17791e</t>
+          <t>69014026ca84f491f7f20ce2</t>
         </is>
       </c>
       <c r="B16"/>
@@ -7038,7 +7038,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d17791e</t>
+          <t>69014026ca84f491f7f20ce2</t>
         </is>
       </c>
       <c r="B17"/>
@@ -7302,7 +7302,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d17791e</t>
+          <t>69014026ca84f491f7f20ce2</t>
         </is>
       </c>
       <c r="B18"/>
@@ -7566,7 +7566,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d17791e</t>
+          <t>69014026ca84f491f7f20ce2</t>
         </is>
       </c>
       <c r="B19"/>
@@ -7814,7 +7814,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d17791e</t>
+          <t>69014026ca84f491f7f20ce2</t>
         </is>
       </c>
       <c r="B20"/>
@@ -8108,7 +8108,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>68ec56cace2f64368d17791e</t>
+          <t>69014026ca84f491f7f20ce2</t>
         </is>
       </c>
       <c r="B21"/>

--- a/converted_files/835/835-all-files.xlsx
+++ b/converted_files/835/835-all-files.xlsx
@@ -1110,7 +1110,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20b5c</t>
+          <t>69446374c1a6b3ab024f4602</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20b8e</t>
+          <t>69446374c1a6b3ab024f4634</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -2034,7 +2034,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20b8e</t>
+          <t>69446374c1a6b3ab024f4634</t>
         </is>
       </c>
       <c r="B4"/>
@@ -2286,7 +2286,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20b8e</t>
+          <t>69446374c1a6b3ab024f4634</t>
         </is>
       </c>
       <c r="B5"/>
@@ -2538,7 +2538,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20bbb</t>
+          <t>69446374c1a6b3ab024f4661</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20c14</t>
+          <t>69446374c1a6b3ab024f46ba</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -3656,7 +3656,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20c14</t>
+          <t>69446374c1a6b3ab024f46ba</t>
         </is>
       </c>
       <c r="B8"/>
@@ -3920,7 +3920,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20c14</t>
+          <t>69446374c1a6b3ab024f46ba</t>
         </is>
       </c>
       <c r="B9"/>
@@ -4184,7 +4184,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20c14</t>
+          <t>69446374c1a6b3ab024f46ba</t>
         </is>
       </c>
       <c r="B10"/>
@@ -4448,7 +4448,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20c14</t>
+          <t>69446374c1a6b3ab024f46ba</t>
         </is>
       </c>
       <c r="B11"/>
@@ -4742,7 +4742,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20c46</t>
+          <t>69446374c1a6b3ab024f46ec</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20c47</t>
+          <t>69446374c1a6b3ab024f46ed</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -5610,7 +5610,7 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20c75</t>
+          <t>69446374c1a6b3ab024f471b</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -6072,7 +6072,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20ce2</t>
+          <t>69446374c1a6b3ab024f4788</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -6774,7 +6774,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20ce2</t>
+          <t>69446374c1a6b3ab024f4788</t>
         </is>
       </c>
       <c r="B16"/>
@@ -7038,7 +7038,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20ce2</t>
+          <t>69446374c1a6b3ab024f4788</t>
         </is>
       </c>
       <c r="B17"/>
@@ -7302,7 +7302,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20ce2</t>
+          <t>69446374c1a6b3ab024f4788</t>
         </is>
       </c>
       <c r="B18"/>
@@ -7566,7 +7566,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20ce2</t>
+          <t>69446374c1a6b3ab024f4788</t>
         </is>
       </c>
       <c r="B19"/>
@@ -7814,7 +7814,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20ce2</t>
+          <t>69446374c1a6b3ab024f4788</t>
         </is>
       </c>
       <c r="B20"/>
@@ -8108,7 +8108,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>69014026ca84f491f7f20ce2</t>
+          <t>69446374c1a6b3ab024f4788</t>
         </is>
       </c>
       <c r="B21"/>
